--- a/15_WBSガントチャート(4日目記入済み).xlsx
+++ b/15_WBSガントチャート(4日目記入済み).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{E9C33123-E877-4C2C-B83C-0D5E5FBDD026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1C1CE853-9A80-469E-834E-C5CD7D2C621F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF089FC-BD3C-4F8D-9B32-5B8C7A907043}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,14 +54,12 @@
     <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$112</definedName>
     <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$112</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -583,7 +581,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1562,6 +1560,42 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1571,194 +1605,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2340,13 +2338,13 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="102" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="P55" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="S69" sqref="S69"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="P58" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="S67" sqref="S67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
@@ -2361,121 +2359,121 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="85" t="s">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="115">
+      <c r="L1" s="82">
         <v>43984</v>
       </c>
-      <c r="M1" s="116"/>
-      <c r="N1" s="115">
+      <c r="M1" s="83"/>
+      <c r="N1" s="82">
         <v>43985</v>
       </c>
-      <c r="O1" s="116"/>
-      <c r="P1" s="115">
+      <c r="O1" s="83"/>
+      <c r="P1" s="82">
         <v>43986</v>
       </c>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="115">
+      <c r="Q1" s="83"/>
+      <c r="R1" s="82">
         <v>43987</v>
       </c>
-      <c r="S1" s="116"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="119" t="s">
+      <c r="S1" s="83"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="102"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="118"/>
-      <c r="N2" s="117" t="s">
+      <c r="M2" s="85"/>
+      <c r="N2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="117"/>
-      <c r="P2" s="120" t="s">
+      <c r="O2" s="84"/>
+      <c r="P2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="117" t="s">
+      <c r="Q2" s="85"/>
+      <c r="R2" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="118"/>
-    </row>
-    <row r="3" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A3" s="101"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="123" t="s">
+      <c r="S2" s="85"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="102"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="122"/>
-      <c r="N3" s="121" t="s">
+      <c r="M3" s="89"/>
+      <c r="N3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="121" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="124" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="124"/>
-    </row>
-    <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="102"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="96"/>
+      <c r="S3" s="91"/>
+    </row>
+    <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="103"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="94"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2501,16 +2499,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A5" s="103" t="s">
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="90"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2553,14 +2551,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="106"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="91"/>
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2603,16 +2601,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1">
-      <c r="A7" s="109" t="s">
+    <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="112"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2655,14 +2653,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="12" customHeight="1">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="113"/>
+    <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="116"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2705,17 +2703,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="12" customHeight="1">
-      <c r="A9" s="59">
+    <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="71">
         <v>1</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="57"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2733,13 +2731,13 @@
       <c r="R9" s="31"/>
       <c r="S9" s="31"/>
     </row>
-    <row r="10" spans="1:19" ht="12" customHeight="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+    <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="72"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="58"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2757,18 +2755,18 @@
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="12" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="61" t="s">
+    <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="71"/>
+      <c r="B11" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="69"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2794,13 +2792,13 @@
       <c r="R11" s="31"/>
       <c r="S11" s="31"/>
     </row>
-    <row r="12" spans="1:19" ht="12" customHeight="1">
-      <c r="A12" s="60"/>
+    <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="72"/>
       <c r="B12" s="62"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="62"/>
       <c r="H12" s="56" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2829,18 +2827,18 @@
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="12" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="61" t="s">
+    <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="71"/>
+      <c r="B13" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="69"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2866,13 +2864,13 @@
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
     </row>
-    <row r="14" spans="1:19" ht="12" customHeight="1">
-      <c r="A14" s="60"/>
+    <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="72"/>
       <c r="B14" s="62"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="62"/>
       <c r="H14" s="56" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2901,17 +2899,17 @@
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="12" customHeight="1">
-      <c r="A15" s="59">
+    <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="71">
         <v>2</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="57"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2929,13 +2927,13 @@
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
     </row>
-    <row r="16" spans="1:19" ht="12" customHeight="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
+    <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="58"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2953,18 +2951,18 @@
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
     </row>
-    <row r="17" spans="1:19" ht="12" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="61" t="s">
+    <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="71"/>
+      <c r="B17" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="69"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -2992,13 +2990,13 @@
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
     </row>
-    <row r="18" spans="1:19" ht="12" customHeight="1">
-      <c r="A18" s="60"/>
+    <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="72"/>
       <c r="B18" s="62"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="62"/>
       <c r="H18" s="56" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3027,18 +3025,18 @@
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
     </row>
-    <row r="19" spans="1:19" ht="12" customHeight="1">
-      <c r="A19" s="59"/>
-      <c r="B19" s="61" t="s">
+    <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="71"/>
+      <c r="B19" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="69"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3067,13 +3065,13 @@
       <c r="R19" s="31"/>
       <c r="S19" s="31"/>
     </row>
-    <row r="20" spans="1:19" ht="12" customHeight="1">
-      <c r="A20" s="60"/>
+    <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="72"/>
       <c r="B20" s="62"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="62"/>
       <c r="H20" s="56" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3102,18 +3100,18 @@
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
     </row>
-    <row r="21" spans="1:19" ht="12" customHeight="1">
-      <c r="A21" s="59"/>
-      <c r="B21" s="61" t="s">
+    <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="71"/>
+      <c r="B21" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="69"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3139,13 +3137,13 @@
       <c r="R21" s="31"/>
       <c r="S21" s="31"/>
     </row>
-    <row r="22" spans="1:19" ht="12" customHeight="1">
-      <c r="A22" s="60"/>
+    <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="72"/>
       <c r="B22" s="62"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="62"/>
       <c r="H22" s="56" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3172,16 +3170,16 @@
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
     </row>
-    <row r="23" spans="1:19" ht="12" customHeight="1">
-      <c r="A23" s="77" t="s">
+    <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="75"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3224,14 +3222,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="12" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="76"/>
+    <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="119"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3274,17 +3272,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="12" customHeight="1">
-      <c r="A25" s="59">
+    <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="71">
         <v>1</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="57"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3302,13 +3300,13 @@
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="1:19" ht="12" customHeight="1">
-      <c r="A26" s="60"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
+    <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="72"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
       <c r="G26" s="58"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3326,18 +3324,18 @@
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
     </row>
-    <row r="27" spans="1:19" ht="12" customHeight="1">
-      <c r="A27" s="59"/>
-      <c r="B27" s="61" t="s">
+    <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="71"/>
+      <c r="B27" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="69"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3363,13 +3361,13 @@
       <c r="R27" s="31"/>
       <c r="S27" s="31"/>
     </row>
-    <row r="28" spans="1:19" ht="12" customHeight="1">
-      <c r="A28" s="60"/>
+    <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="72"/>
       <c r="B28" s="62"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="62"/>
       <c r="H28" s="56" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3396,18 +3394,18 @@
       <c r="R28" s="32"/>
       <c r="S28" s="32"/>
     </row>
-    <row r="29" spans="1:19" ht="12" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="61" t="s">
+    <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="71"/>
+      <c r="B29" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="69"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3433,13 +3431,13 @@
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="30" spans="1:19" ht="12" customHeight="1">
-      <c r="A30" s="60"/>
+    <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="72"/>
       <c r="B30" s="62"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="62"/>
       <c r="H30" s="56" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3472,18 +3470,18 @@
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
     </row>
-    <row r="31" spans="1:19" ht="12" customHeight="1">
-      <c r="A31" s="59"/>
-      <c r="B31" s="61" t="s">
+    <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="71"/>
+      <c r="B31" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="69"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3510,13 +3508,13 @@
       <c r="R31" s="31"/>
       <c r="S31" s="31"/>
     </row>
-    <row r="32" spans="1:19" ht="12" customHeight="1">
-      <c r="A32" s="60"/>
+    <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="72"/>
       <c r="B32" s="62"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="62"/>
       <c r="H32" s="56" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3544,18 +3542,18 @@
       <c r="R32" s="32"/>
       <c r="S32" s="32"/>
     </row>
-    <row r="33" spans="1:19" ht="12" customHeight="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="61" t="s">
+    <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="71"/>
+      <c r="B33" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="69"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3582,13 +3580,13 @@
       <c r="R33" s="31"/>
       <c r="S33" s="31"/>
     </row>
-    <row r="34" spans="1:19" ht="12" customHeight="1">
-      <c r="A34" s="60"/>
+    <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="72"/>
       <c r="B34" s="62"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="62"/>
       <c r="H34" s="56" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3616,17 +3614,17 @@
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
     </row>
-    <row r="35" spans="1:19" ht="12" customHeight="1">
-      <c r="A35" s="59">
+    <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="71">
         <v>2</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="57"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3644,13 +3642,13 @@
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
     </row>
-    <row r="36" spans="1:19" ht="12" customHeight="1">
-      <c r="A36" s="60"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
+    <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="72"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
       <c r="G36" s="58"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3668,18 +3666,18 @@
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
     </row>
-    <row r="37" spans="1:19" ht="12" customHeight="1">
-      <c r="A37" s="59"/>
-      <c r="B37" s="61" t="s">
+    <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="71"/>
+      <c r="B37" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="69"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3706,13 +3704,13 @@
       <c r="R37" s="31"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="1:19" ht="12" customHeight="1">
-      <c r="A38" s="60"/>
+    <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="72"/>
       <c r="B38" s="62"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="62"/>
       <c r="H38" s="56" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3746,18 +3744,18 @@
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
     </row>
-    <row r="39" spans="1:19" ht="12" customHeight="1">
-      <c r="A39" s="59"/>
-      <c r="B39" s="61" t="s">
+    <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="71"/>
+      <c r="B39" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="69"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="61"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3783,13 +3781,13 @@
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
     </row>
-    <row r="40" spans="1:19" ht="12" customHeight="1">
-      <c r="A40" s="60"/>
+    <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="72"/>
       <c r="B40" s="62"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
       <c r="G40" s="62"/>
       <c r="H40" s="56" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3823,18 +3821,18 @@
       <c r="R40" s="32"/>
       <c r="S40" s="32"/>
     </row>
-    <row r="41" spans="1:19" ht="12" customHeight="1">
-      <c r="A41" s="59"/>
-      <c r="B41" s="61" t="s">
+    <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="71"/>
+      <c r="B41" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="69"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="61"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3860,13 +3858,13 @@
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
     </row>
-    <row r="42" spans="1:19" ht="12" customHeight="1">
-      <c r="A42" s="60"/>
+    <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="72"/>
       <c r="B42" s="62"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
       <c r="G42" s="62"/>
       <c r="H42" s="56" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3900,16 +3898,16 @@
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
     </row>
-    <row r="43" spans="1:19" ht="12" customHeight="1">
-      <c r="A43" s="77" t="s">
+    <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="118"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3952,14 +3950,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="12" customHeight="1">
-      <c r="A44" s="80"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="76"/>
+    <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="77"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="119"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4002,17 +4000,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="12" customHeight="1">
-      <c r="A45" s="59">
+    <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="71">
         <v>1</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
       <c r="G45" s="57"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4030,13 +4028,13 @@
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
     </row>
-    <row r="46" spans="1:19" ht="12" customHeight="1">
-      <c r="A46" s="60"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
+    <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="72"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
       <c r="G46" s="58"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4054,18 +4052,18 @@
       <c r="R46" s="32"/>
       <c r="S46" s="32"/>
     </row>
-    <row r="47" spans="1:19" ht="12" customHeight="1">
-      <c r="A47" s="59"/>
-      <c r="B47" s="61" t="s">
+    <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="71"/>
+      <c r="B47" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="64"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="69"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="61"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -4092,13 +4090,13 @@
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
     </row>
-    <row r="48" spans="1:19" ht="12" customHeight="1">
-      <c r="A48" s="60"/>
+    <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="72"/>
       <c r="B48" s="62"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
       <c r="G48" s="62"/>
       <c r="H48" s="56" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4132,18 +4130,18 @@
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
     </row>
-    <row r="49" spans="1:19" ht="12" customHeight="1">
-      <c r="A49" s="59"/>
-      <c r="B49" s="61" t="s">
+    <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="71"/>
+      <c r="B49" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="69"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="61"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4170,13 +4168,13 @@
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
     </row>
-    <row r="50" spans="1:19" ht="12" customHeight="1">
-      <c r="A50" s="60"/>
+    <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="72"/>
       <c r="B50" s="62"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
       <c r="G50" s="62"/>
       <c r="H50" s="56" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4204,17 +4202,17 @@
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
     </row>
-    <row r="51" spans="1:19" ht="12" customHeight="1">
-      <c r="A51" s="59">
+    <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="71">
         <v>2</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
       <c r="G51" s="57"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4232,13 +4230,13 @@
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
     </row>
-    <row r="52" spans="1:19" ht="12" customHeight="1">
-      <c r="A52" s="60"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
+    <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="72"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
       <c r="G52" s="58"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4256,18 +4254,18 @@
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
     </row>
-    <row r="53" spans="1:19" ht="12" customHeight="1">
-      <c r="A53" s="59"/>
-      <c r="B53" s="61" t="s">
+    <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="71"/>
+      <c r="B53" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="69"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="61"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4294,13 +4292,13 @@
       <c r="R53" s="31"/>
       <c r="S53" s="31"/>
     </row>
-    <row r="54" spans="1:19" ht="12" customHeight="1">
-      <c r="A54" s="60"/>
+    <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="72"/>
       <c r="B54" s="62"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
       <c r="G54" s="62"/>
       <c r="H54" s="56" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4328,18 +4326,18 @@
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
     </row>
-    <row r="55" spans="1:19" ht="12" customHeight="1">
-      <c r="A55" s="59"/>
-      <c r="B55" s="61" t="s">
+    <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="71"/>
+      <c r="B55" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="64"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="69"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="61"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4366,13 +4364,13 @@
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
     </row>
-    <row r="56" spans="1:19" ht="12" customHeight="1">
-      <c r="A56" s="60"/>
+    <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="72"/>
       <c r="B56" s="62"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
       <c r="G56" s="62"/>
       <c r="H56" s="56" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4400,18 +4398,18 @@
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
     </row>
-    <row r="57" spans="1:19" ht="12" customHeight="1">
-      <c r="A57" s="59"/>
-      <c r="B57" s="61" t="s">
+    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="71"/>
+      <c r="B57" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="64"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="69"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="61"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4438,13 +4436,13 @@
       <c r="R57" s="31"/>
       <c r="S57" s="31"/>
     </row>
-    <row r="58" spans="1:19" ht="12" customHeight="1">
-      <c r="A58" s="60"/>
+    <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="72"/>
       <c r="B58" s="62"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
       <c r="G58" s="62"/>
       <c r="H58" s="56" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4472,16 +4470,16 @@
       <c r="R58" s="44"/>
       <c r="S58" s="44"/>
     </row>
-    <row r="59" spans="1:19" ht="12" customHeight="1">
-      <c r="A59" s="77" t="s">
+    <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="75"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="118"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -4524,14 +4522,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="12" customHeight="1">
-      <c r="A60" s="80"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="76"/>
+    <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="77"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="119"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4574,17 +4572,17 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="12" customHeight="1">
-      <c r="A61" s="59">
+    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="71">
         <v>1</v>
       </c>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
       <c r="G61" s="57"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4602,13 +4600,13 @@
       <c r="R61" s="31"/>
       <c r="S61" s="31"/>
     </row>
-    <row r="62" spans="1:19" ht="12" customHeight="1">
-      <c r="A62" s="60"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
+    <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="72"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
       <c r="G62" s="58"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4626,18 +4624,18 @@
       <c r="R62" s="32"/>
       <c r="S62" s="32"/>
     </row>
-    <row r="63" spans="1:19" ht="12" customHeight="1">
-      <c r="A63" s="59"/>
-      <c r="B63" s="61" t="s">
+    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="71"/>
+      <c r="B63" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="63" t="s">
+      <c r="C63" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="64"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="69"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="61"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4664,13 +4662,13 @@
       <c r="R63" s="31"/>
       <c r="S63" s="31"/>
     </row>
-    <row r="64" spans="1:19" ht="12" customHeight="1">
-      <c r="A64" s="60"/>
+    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="72"/>
       <c r="B64" s="62"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
       <c r="G64" s="62"/>
       <c r="H64" s="56" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4698,18 +4696,18 @@
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
     </row>
-    <row r="65" spans="1:19" ht="12" customHeight="1">
-      <c r="A65" s="59"/>
-      <c r="B65" s="61" t="s">
+    <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="71"/>
+      <c r="B65" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="69"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="61"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4735,13 +4733,13 @@
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
-    <row r="66" spans="1:19" ht="12" customHeight="1">
-      <c r="A66" s="60"/>
+    <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="72"/>
       <c r="B66" s="62"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
       <c r="G66" s="62"/>
       <c r="H66" s="56" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4755,7 +4753,7 @@
       </c>
       <c r="K66" s="10">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>13.5</v>
       </c>
       <c r="L66" s="41"/>
       <c r="M66" s="32"/>
@@ -4770,20 +4768,23 @@
         <f>0.25*6</f>
         <v>1.5</v>
       </c>
-      <c r="S66" s="32"/>
-    </row>
-    <row r="67" spans="1:19" ht="12" customHeight="1">
-      <c r="A67" s="59"/>
-      <c r="B67" s="61" t="s">
+      <c r="S66" s="32">
+        <f>1.25*6</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="71"/>
+      <c r="B67" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="63" t="s">
+      <c r="C67" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="64"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="69"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="61"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4810,13 +4811,13 @@
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
     </row>
-    <row r="68" spans="1:19" ht="12" customHeight="1">
-      <c r="A68" s="60"/>
+    <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="72"/>
       <c r="B68" s="62"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
       <c r="G68" s="62"/>
       <c r="H68" s="56" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4826,7 +4827,7 @@
       <c r="J68" s="56"/>
       <c r="K68" s="10">
         <f t="shared" si="16"/>
-        <v>28.5</v>
+        <v>21</v>
       </c>
       <c r="L68" s="41"/>
       <c r="M68" s="32"/>
@@ -4839,21 +4840,21 @@
         <v>15</v>
       </c>
       <c r="S68" s="32">
-        <f>2.25*6</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="12" customHeight="1">
-      <c r="A69" s="59">
+        <f>1*6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="71">
         <v>2</v>
       </c>
-      <c r="B69" s="63" t="s">
+      <c r="B69" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="71"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
       <c r="G69" s="57"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4871,13 +4872,13 @@
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
-    <row r="70" spans="1:19" ht="12" customHeight="1">
-      <c r="A70" s="60"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
+    <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="72"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
       <c r="G70" s="58"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4895,18 +4896,18 @@
       <c r="R70" s="32"/>
       <c r="S70" s="32"/>
     </row>
-    <row r="71" spans="1:19" ht="12" customHeight="1">
-      <c r="A71" s="59"/>
-      <c r="B71" s="61" t="s">
+    <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="71"/>
+      <c r="B71" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="63" t="s">
+      <c r="C71" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="64"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="69"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="61"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4933,13 +4934,13 @@
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
     </row>
-    <row r="72" spans="1:19" ht="12" customHeight="1">
-      <c r="A72" s="60"/>
+    <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="72"/>
       <c r="B72" s="62"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="68"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
       <c r="G72" s="62"/>
       <c r="H72" s="56" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4963,18 +4964,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="12" customHeight="1">
-      <c r="A73" s="59"/>
-      <c r="B73" s="61" t="s">
+    <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="71"/>
+      <c r="B73" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="63" t="s">
+      <c r="C73" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D73" s="64"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="69"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="61"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -5001,13 +5002,13 @@
       <c r="R73" s="31"/>
       <c r="S73" s="31"/>
     </row>
-    <row r="74" spans="1:19" ht="12" customHeight="1">
-      <c r="A74" s="60"/>
+    <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="72"/>
       <c r="B74" s="62"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
       <c r="G74" s="62"/>
       <c r="H74" s="56" t="str">
         <f>IF(E73="","","実績")</f>
@@ -5031,18 +5032,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="12" customHeight="1">
-      <c r="A75" s="59"/>
-      <c r="B75" s="61" t="s">
+    <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="71"/>
+      <c r="B75" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="63" t="s">
+      <c r="C75" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="69"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="61"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -5069,13 +5070,13 @@
       <c r="R75" s="31"/>
       <c r="S75" s="31"/>
     </row>
-    <row r="76" spans="1:19" ht="12" customHeight="1">
-      <c r="A76" s="60"/>
+    <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="72"/>
       <c r="B76" s="62"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
       <c r="G76" s="62"/>
       <c r="H76" s="56" t="str">
         <f>IF(E75="","","実績")</f>
@@ -5099,16 +5100,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="12" customHeight="1">
-      <c r="A77" s="77" t="s">
+    <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="78"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="75"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="80"/>
+      <c r="G77" s="118"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -5151,14 +5152,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="12" customHeight="1">
-      <c r="A78" s="80"/>
-      <c r="B78" s="81"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="76"/>
+    <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="77"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="119"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5201,17 +5202,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="12" customHeight="1">
-      <c r="A79" s="59">
+    <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="71">
         <v>1</v>
       </c>
-      <c r="B79" s="63" t="s">
+      <c r="B79" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="71"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
       <c r="G79" s="57"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5229,13 +5230,13 @@
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
     </row>
-    <row r="80" spans="1:19" ht="12" customHeight="1">
-      <c r="A80" s="60"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="72"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
+    <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="72"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
       <c r="G80" s="58"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5253,18 +5254,18 @@
       <c r="R80" s="32"/>
       <c r="S80" s="32"/>
     </row>
-    <row r="81" spans="1:19" ht="12" customHeight="1">
-      <c r="A81" s="59"/>
-      <c r="B81" s="61" t="s">
+    <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="71"/>
+      <c r="B81" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="63" t="s">
+      <c r="C81" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D81" s="64"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="69"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="61"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5294,13 +5295,13 @@
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
     </row>
-    <row r="82" spans="1:19" ht="12" customHeight="1">
-      <c r="A82" s="60"/>
+    <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="72"/>
       <c r="B82" s="62"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
       <c r="G82" s="62"/>
       <c r="H82" s="56" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5321,18 +5322,18 @@
       <c r="R82" s="32"/>
       <c r="S82" s="32"/>
     </row>
-    <row r="83" spans="1:19" ht="12" customHeight="1">
-      <c r="A83" s="59"/>
-      <c r="B83" s="61" t="s">
+    <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="71"/>
+      <c r="B83" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="63" t="s">
+      <c r="C83" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="D83" s="64"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="69"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="61"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5362,13 +5363,13 @@
       </c>
       <c r="S83" s="31"/>
     </row>
-    <row r="84" spans="1:19" ht="12" customHeight="1">
-      <c r="A84" s="60"/>
+    <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="72"/>
       <c r="B84" s="62"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
       <c r="G84" s="62"/>
       <c r="H84" s="56" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5389,16 +5390,16 @@
       <c r="R84" s="32"/>
       <c r="S84" s="32"/>
     </row>
-    <row r="85" spans="1:19" ht="12" customHeight="1">
-      <c r="A85" s="77" t="s">
+    <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B85" s="78"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="79"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="75"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="80"/>
+      <c r="G85" s="118"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
@@ -5441,14 +5442,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="12" customHeight="1">
-      <c r="A86" s="80"/>
-      <c r="B86" s="81"/>
-      <c r="C86" s="81"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="76"/>
+    <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="77"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="119"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5491,17 +5492,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="12" customHeight="1">
-      <c r="A87" s="59">
+    <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="71">
         <v>1</v>
       </c>
-      <c r="B87" s="63" t="s">
+      <c r="B87" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="71"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
       <c r="G87" s="57"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5519,13 +5520,13 @@
       <c r="R87" s="31"/>
       <c r="S87" s="31"/>
     </row>
-    <row r="88" spans="1:19" ht="12" customHeight="1">
-      <c r="A88" s="60"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
+    <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="72"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="64"/>
       <c r="G88" s="58"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5543,18 +5544,18 @@
       <c r="R88" s="32"/>
       <c r="S88" s="32"/>
     </row>
-    <row r="89" spans="1:19" ht="12" customHeight="1">
-      <c r="A89" s="59"/>
-      <c r="B89" s="61" t="s">
+    <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="71"/>
+      <c r="B89" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="63" t="s">
+      <c r="C89" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="64"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="69"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="61"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5581,13 +5582,13 @@
       </c>
       <c r="S89" s="31"/>
     </row>
-    <row r="90" spans="1:19" ht="12" customHeight="1">
-      <c r="A90" s="60"/>
+    <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="72"/>
       <c r="B90" s="62"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="70"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
       <c r="G90" s="62"/>
       <c r="H90" s="56" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5608,18 +5609,18 @@
       <c r="R90" s="32"/>
       <c r="S90" s="32"/>
     </row>
-    <row r="91" spans="1:19" ht="12" customHeight="1">
-      <c r="A91" s="59"/>
-      <c r="B91" s="61" t="s">
+    <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="71"/>
+      <c r="B91" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="70" t="s">
+      <c r="C91" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="D91" s="64"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="69"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="61"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5646,13 +5647,13 @@
       </c>
       <c r="S91" s="31"/>
     </row>
-    <row r="92" spans="1:19" ht="12" customHeight="1">
-      <c r="A92" s="60"/>
+    <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="72"/>
       <c r="B92" s="62"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
       <c r="G92" s="62"/>
       <c r="H92" s="56" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5673,17 +5674,17 @@
       <c r="R92" s="32"/>
       <c r="S92" s="32"/>
     </row>
-    <row r="93" spans="1:19" ht="12" customHeight="1">
-      <c r="A93" s="59">
+    <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="71">
         <v>2</v>
       </c>
-      <c r="B93" s="63" t="s">
+      <c r="B93" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="71"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="73"/>
-      <c r="F93" s="73"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="63"/>
       <c r="G93" s="57"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5701,13 +5702,13 @@
       <c r="R93" s="31"/>
       <c r="S93" s="31"/>
     </row>
-    <row r="94" spans="1:19" ht="12" customHeight="1">
-      <c r="A94" s="60"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="72"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="74"/>
+    <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="72"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
       <c r="G94" s="58"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5725,18 +5726,18 @@
       <c r="R94" s="32"/>
       <c r="S94" s="32"/>
     </row>
-    <row r="95" spans="1:19" ht="12" customHeight="1">
-      <c r="A95" s="59"/>
-      <c r="B95" s="61" t="s">
+    <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="71"/>
+      <c r="B95" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="63" t="s">
+      <c r="C95" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="64"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="69"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="61"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5763,13 +5764,13 @@
       </c>
       <c r="S95" s="31"/>
     </row>
-    <row r="96" spans="1:19" ht="12" customHeight="1">
-      <c r="A96" s="60"/>
+    <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="72"/>
       <c r="B96" s="62"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="68"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
       <c r="G96" s="62"/>
       <c r="H96" s="56" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5790,18 +5791,18 @@
       <c r="R96" s="32"/>
       <c r="S96" s="32"/>
     </row>
-    <row r="97" spans="1:19" ht="12" customHeight="1">
-      <c r="A97" s="59"/>
-      <c r="B97" s="61" t="s">
+    <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="71"/>
+      <c r="B97" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="63" t="s">
+      <c r="C97" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="64"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="69"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="61"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5828,13 +5829,13 @@
       </c>
       <c r="S97" s="31"/>
     </row>
-    <row r="98" spans="1:19" ht="12" customHeight="1">
-      <c r="A98" s="60"/>
+    <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="72"/>
       <c r="B98" s="62"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="68"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
       <c r="G98" s="62"/>
       <c r="H98" s="56" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5855,16 +5856,16 @@
       <c r="R98" s="44"/>
       <c r="S98" s="44"/>
     </row>
-    <row r="99" spans="1:19" ht="12" customHeight="1">
-      <c r="A99" s="77" t="s">
+    <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B99" s="78"/>
-      <c r="C99" s="78"/>
-      <c r="D99" s="79"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="75"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="118"/>
       <c r="H99" s="20" t="s">
         <v>19</v>
       </c>
@@ -5907,14 +5908,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="12" customHeight="1">
-      <c r="A100" s="80"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="82"/>
-      <c r="E100" s="84"/>
-      <c r="F100" s="84"/>
-      <c r="G100" s="76"/>
+    <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="77"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="81"/>
+      <c r="F100" s="81"/>
+      <c r="G100" s="119"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5957,17 +5958,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="12" customHeight="1">
-      <c r="A101" s="59">
+    <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="71">
         <v>1</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B101" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="71"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
       <c r="G101" s="57"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5985,13 +5986,13 @@
       <c r="R101" s="31"/>
       <c r="S101" s="31"/>
     </row>
-    <row r="102" spans="1:19" ht="12" customHeight="1">
-      <c r="A102" s="60"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
+    <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="72"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
       <c r="G102" s="58"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -6009,18 +6010,18 @@
       <c r="R102" s="32"/>
       <c r="S102" s="32"/>
     </row>
-    <row r="103" spans="1:19" ht="12" customHeight="1">
-      <c r="A103" s="59"/>
-      <c r="B103" s="61" t="s">
+    <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="71"/>
+      <c r="B103" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="63" t="s">
+      <c r="C103" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D103" s="64"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="69"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="61"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6047,13 +6048,13 @@
       </c>
       <c r="S103" s="31"/>
     </row>
-    <row r="104" spans="1:19" ht="12" customHeight="1">
-      <c r="A104" s="60"/>
+    <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="72"/>
       <c r="B104" s="62"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="68"/>
-      <c r="F104" s="68"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
       <c r="G104" s="62"/>
       <c r="H104" s="56" t="str">
         <f>IF(E103="","","実績")</f>
@@ -6074,18 +6075,18 @@
       <c r="R104" s="32"/>
       <c r="S104" s="32"/>
     </row>
-    <row r="105" spans="1:19" ht="12" customHeight="1">
-      <c r="A105" s="59"/>
-      <c r="B105" s="61" t="s">
+    <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="71"/>
+      <c r="B105" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="63" t="s">
+      <c r="C105" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D105" s="64"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="69"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="61"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -6112,13 +6113,13 @@
       </c>
       <c r="S105" s="31"/>
     </row>
-    <row r="106" spans="1:19" ht="12" customHeight="1">
-      <c r="A106" s="60"/>
+    <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="72"/>
       <c r="B106" s="62"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="68"/>
-      <c r="F106" s="68"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60"/>
       <c r="G106" s="62"/>
       <c r="H106" s="56" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6139,17 +6140,17 @@
       <c r="R106" s="32"/>
       <c r="S106" s="32"/>
     </row>
-    <row r="107" spans="1:19" ht="12" customHeight="1">
-      <c r="A107" s="59">
+    <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="71">
         <v>2</v>
       </c>
-      <c r="B107" s="63" t="s">
+      <c r="B107" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="71"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="73"/>
-      <c r="F107" s="73"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="63"/>
       <c r="G107" s="57"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6167,13 +6168,13 @@
       <c r="R107" s="31"/>
       <c r="S107" s="31"/>
     </row>
-    <row r="108" spans="1:19" ht="12" customHeight="1">
-      <c r="A108" s="60"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="72"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
+    <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="72"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
       <c r="G108" s="58"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6191,18 +6192,18 @@
       <c r="R108" s="32"/>
       <c r="S108" s="32"/>
     </row>
-    <row r="109" spans="1:19" ht="12" customHeight="1">
-      <c r="A109" s="59"/>
-      <c r="B109" s="61" t="s">
+    <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="71"/>
+      <c r="B109" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="63" t="s">
+      <c r="C109" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="64"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="69"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="61"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6229,13 +6230,13 @@
       </c>
       <c r="S109" s="31"/>
     </row>
-    <row r="110" spans="1:19" ht="12" customHeight="1">
-      <c r="A110" s="60"/>
+    <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="72"/>
       <c r="B110" s="62"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="68"/>
-      <c r="F110" s="68"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="60"/>
       <c r="G110" s="62"/>
       <c r="H110" s="56" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6256,18 +6257,18 @@
       <c r="R110" s="32"/>
       <c r="S110" s="32"/>
     </row>
-    <row r="111" spans="1:19" ht="12" customHeight="1">
-      <c r="A111" s="59"/>
-      <c r="B111" s="61" t="s">
+    <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="71"/>
+      <c r="B111" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="63" t="s">
+      <c r="C111" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D111" s="64"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="69"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="61"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6294,13 +6295,13 @@
       </c>
       <c r="S111" s="31"/>
     </row>
-    <row r="112" spans="1:19" ht="12" customHeight="1">
-      <c r="A112" s="60"/>
+    <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="72"/>
       <c r="B112" s="62"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="68"/>
-      <c r="F112" s="68"/>
+      <c r="C112" s="68"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="60"/>
       <c r="G112" s="62"/>
       <c r="H112" s="56" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6321,7 +6322,7 @@
       <c r="R112" s="32"/>
       <c r="S112" s="32"/>
     </row>
-    <row r="113" spans="12:19">
+    <row r="113" spans="12:19" x14ac:dyDescent="0.15">
       <c r="L113" s="39"/>
       <c r="M113" s="39"/>
       <c r="N113" s="39"/>
@@ -6337,19 +6338,284 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6374,284 +6640,19 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L22:S22 M21:S21 L25:S26 M27:S27 M29:S29 L66:S66 Q65:S65 L65:O65 L28:O28 Q28:S28 L30:S36">
@@ -6733,6 +6734,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6916,29 +6932,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD03FED8-A00F-4FCB-A8E4-19FD98D3DE82}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD03FED8-A00F-4FCB-A8E4-19FD98D3DE82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/15_WBSガントチャート(4日目記入済み).xlsx
+++ b/15_WBSガントチャート(4日目記入済み).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF089FC-BD3C-4F8D-9B32-5B8C7A907043}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04291847-5F7A-4A64-B224-60C0B3FC20E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1050" yWindow="795" windowWidth="15630" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復1" sheetId="1" r:id="rId1"/>
@@ -1560,6 +1560,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,7 +1593,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1578,31 +1608,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,6 +1638,96 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1658,105 +1757,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2338,10 +2338,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="102" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="P58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="P64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S67" sqref="S67"/>
+      <selection pane="bottomRight" activeCell="S68" sqref="S68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2360,120 +2360,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="98" t="s">
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="K1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="82">
+      <c r="L1" s="115">
         <v>43984</v>
       </c>
-      <c r="M1" s="83"/>
-      <c r="N1" s="82">
+      <c r="M1" s="116"/>
+      <c r="N1" s="115">
         <v>43985</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="82">
+      <c r="O1" s="116"/>
+      <c r="P1" s="115">
         <v>43986</v>
       </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="82">
+      <c r="Q1" s="116"/>
+      <c r="R1" s="115">
         <v>43987</v>
       </c>
-      <c r="S1" s="83"/>
+      <c r="S1" s="116"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="86" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="84" t="s">
+      <c r="M2" s="118"/>
+      <c r="N2" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="84"/>
-      <c r="P2" s="87" t="s">
+      <c r="O2" s="117"/>
+      <c r="P2" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="84" t="s">
+      <c r="Q2" s="118"/>
+      <c r="R2" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="85"/>
+      <c r="S2" s="118"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="102"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="90" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="89"/>
-      <c r="N3" s="88" t="s">
+      <c r="M3" s="122"/>
+      <c r="N3" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="122"/>
+      <c r="P3" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="91" t="s">
+      <c r="Q3" s="122"/>
+      <c r="R3" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="91"/>
+      <c r="S3" s="124"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="103"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="94"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="96"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2500,15 +2500,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="122"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2552,13 +2552,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="123"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2602,15 +2602,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="115"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2654,13 +2654,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="116"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="113"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2704,16 +2704,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="71">
+      <c r="A9" s="59">
         <v>1</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="57"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2732,12 +2732,12 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="58"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2756,17 +2756,17 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="71"/>
-      <c r="B11" s="73" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="61"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="69"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2793,12 +2793,12 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="62"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="62"/>
       <c r="H12" s="56" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2828,17 +2828,17 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="71"/>
-      <c r="B13" s="73" t="s">
+      <c r="A13" s="59"/>
+      <c r="B13" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="61"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="69"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2865,12 +2865,12 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="62"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="62"/>
       <c r="H14" s="56" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2900,16 +2900,16 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="71">
+      <c r="A15" s="59">
         <v>2</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="57"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2928,12 +2928,12 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="58"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2952,17 +2952,17 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="71"/>
-      <c r="B17" s="73" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="61"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -2991,12 +2991,12 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="62"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="62"/>
       <c r="H18" s="56" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3026,17 +3026,17 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="71"/>
-      <c r="B19" s="73" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="61"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="69"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3066,12 +3066,12 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="62"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="62"/>
       <c r="H20" s="56" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3101,17 +3101,17 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="71"/>
-      <c r="B21" s="73" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="61"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3138,12 +3138,12 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="62"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="62"/>
       <c r="H22" s="56" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3171,15 +3171,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="118"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="75"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3223,13 +3223,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="119"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="76"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3273,16 +3273,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="71">
+      <c r="A25" s="59">
         <v>1</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="57"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3301,12 +3301,12 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="58"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3325,17 +3325,17 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="71"/>
-      <c r="B27" s="73" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="61"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="69"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3362,12 +3362,12 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="62"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="62"/>
       <c r="H28" s="56" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3395,17 +3395,17 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="71"/>
-      <c r="B29" s="73" t="s">
+      <c r="A29" s="59"/>
+      <c r="B29" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="61"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="69"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3432,12 +3432,12 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="62"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="62"/>
       <c r="H30" s="56" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3471,17 +3471,17 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="71"/>
-      <c r="B31" s="73" t="s">
+      <c r="A31" s="59"/>
+      <c r="B31" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="61"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="69"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3509,12 +3509,12 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="62"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="62"/>
       <c r="H32" s="56" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3543,17 +3543,17 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="71"/>
-      <c r="B33" s="73" t="s">
+      <c r="A33" s="59"/>
+      <c r="B33" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="61"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="69"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3581,12 +3581,12 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="62"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="62"/>
       <c r="H34" s="56" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3615,16 +3615,16 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="71">
+      <c r="A35" s="59">
         <v>2</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
       <c r="G35" s="57"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3643,12 +3643,12 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="58"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3667,17 +3667,17 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="71"/>
-      <c r="B37" s="73" t="s">
+      <c r="A37" s="59"/>
+      <c r="B37" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="61"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="69"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3705,12 +3705,12 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="72"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="62"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="62"/>
       <c r="H38" s="56" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3745,17 +3745,17 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="71"/>
-      <c r="B39" s="73" t="s">
+      <c r="A39" s="59"/>
+      <c r="B39" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="61"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="69"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3782,12 +3782,12 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="72"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="62"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
       <c r="G40" s="62"/>
       <c r="H40" s="56" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3822,17 +3822,17 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="71"/>
-      <c r="B41" s="73" t="s">
+      <c r="A41" s="59"/>
+      <c r="B41" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="61"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="69"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3859,12 +3859,12 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="72"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="62"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
       <c r="G42" s="62"/>
       <c r="H42" s="56" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3899,15 +3899,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="118"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="75"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3951,13 +3951,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="77"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="119"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="76"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4001,16 +4001,16 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="71">
+      <c r="A45" s="59">
         <v>1</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
       <c r="G45" s="57"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4029,12 +4029,12 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="72"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
       <c r="G46" s="58"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4053,17 +4053,17 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="71"/>
-      <c r="B47" s="73" t="s">
+      <c r="A47" s="59"/>
+      <c r="B47" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="61"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="69"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -4091,12 +4091,12 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="72"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="62"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
       <c r="G48" s="62"/>
       <c r="H48" s="56" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4131,17 +4131,17 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="71"/>
-      <c r="B49" s="73" t="s">
+      <c r="A49" s="59"/>
+      <c r="B49" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="61"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4169,12 +4169,12 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="72"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="62"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
       <c r="G50" s="62"/>
       <c r="H50" s="56" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4203,16 +4203,16 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="71">
+      <c r="A51" s="59">
         <v>2</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
       <c r="G51" s="57"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4231,12 +4231,12 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="72"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
       <c r="G52" s="58"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4255,17 +4255,17 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="71"/>
-      <c r="B53" s="73" t="s">
+      <c r="A53" s="59"/>
+      <c r="B53" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="61"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="69"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4293,12 +4293,12 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="72"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="62"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
       <c r="G54" s="62"/>
       <c r="H54" s="56" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4327,17 +4327,17 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="71"/>
-      <c r="B55" s="73" t="s">
+      <c r="A55" s="59"/>
+      <c r="B55" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="61"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="69"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4365,12 +4365,12 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="72"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="62"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
       <c r="G56" s="62"/>
       <c r="H56" s="56" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4399,17 +4399,17 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="71"/>
-      <c r="B57" s="73" t="s">
+      <c r="A57" s="59"/>
+      <c r="B57" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="65" t="s">
+      <c r="C57" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="61"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="69"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4437,12 +4437,12 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="72"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="62"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
       <c r="G58" s="62"/>
       <c r="H58" s="56" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4471,15 +4471,15 @@
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="74" t="s">
+      <c r="A59" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="75"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="118"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="75"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -4523,13 +4523,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="77"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="119"/>
+      <c r="A60" s="80"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="76"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4573,16 +4573,16 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="71">
+      <c r="A61" s="59">
         <v>1</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="66"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
       <c r="G61" s="57"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4601,12 +4601,12 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="72"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
       <c r="G62" s="58"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4625,17 +4625,17 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="71"/>
-      <c r="B63" s="73" t="s">
+      <c r="A63" s="59"/>
+      <c r="B63" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="67"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="61"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="69"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4663,12 +4663,12 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="72"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="62"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
       <c r="G64" s="62"/>
       <c r="H64" s="56" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4697,17 +4697,17 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="71"/>
-      <c r="B65" s="73" t="s">
+      <c r="A65" s="59"/>
+      <c r="B65" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="65" t="s">
+      <c r="C65" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="67"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="61"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="69"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4734,12 +4734,12 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="72"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="62"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
       <c r="G66" s="62"/>
       <c r="H66" s="56" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4774,17 +4774,17 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="71"/>
-      <c r="B67" s="73" t="s">
+      <c r="A67" s="59"/>
+      <c r="B67" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="65" t="s">
+      <c r="C67" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="67"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="61"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="69"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4812,12 +4812,12 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="72"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="62"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
       <c r="G68" s="62"/>
       <c r="H68" s="56" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4845,16 +4845,16 @@
       </c>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="71">
+      <c r="A69" s="59">
         <v>2</v>
       </c>
-      <c r="B69" s="65" t="s">
+      <c r="B69" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="66"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
       <c r="G69" s="57"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4873,12 +4873,12 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="72"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
+      <c r="A70" s="60"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
       <c r="G70" s="58"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4897,17 +4897,17 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="71"/>
-      <c r="B71" s="73" t="s">
+      <c r="A71" s="59"/>
+      <c r="B71" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="65" t="s">
+      <c r="C71" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="67"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="61"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="69"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4935,12 +4935,12 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="72"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="62"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="68"/>
       <c r="G72" s="62"/>
       <c r="H72" s="56" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4965,17 +4965,17 @@
       </c>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="71"/>
-      <c r="B73" s="73" t="s">
+      <c r="A73" s="59"/>
+      <c r="B73" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="65" t="s">
+      <c r="C73" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D73" s="67"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="61"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="69"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -5003,12 +5003,12 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="72"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="62"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
       <c r="G74" s="62"/>
       <c r="H74" s="56" t="str">
         <f>IF(E73="","","実績")</f>
@@ -5033,17 +5033,17 @@
       </c>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="71"/>
-      <c r="B75" s="73" t="s">
+      <c r="A75" s="59"/>
+      <c r="B75" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C75" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="67"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="61"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="69"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -5071,12 +5071,12 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="72"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="62"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
       <c r="G76" s="62"/>
       <c r="H76" s="56" t="str">
         <f>IF(E75="","","実績")</f>
@@ -5101,15 +5101,15 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="74" t="s">
+      <c r="A77" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="75"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="118"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="75"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -5153,13 +5153,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="77"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="119"/>
+      <c r="A78" s="80"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="76"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5203,16 +5203,16 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="71">
+      <c r="A79" s="59">
         <v>1</v>
       </c>
-      <c r="B79" s="65" t="s">
+      <c r="B79" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="66"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="73"/>
       <c r="G79" s="57"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5231,12 +5231,12 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="72"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
+      <c r="A80" s="60"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
       <c r="G80" s="58"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5255,17 +5255,17 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="71"/>
-      <c r="B81" s="73" t="s">
+      <c r="A81" s="59"/>
+      <c r="B81" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="65" t="s">
+      <c r="C81" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="D81" s="67"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="61"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="69"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5296,12 +5296,12 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="72"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="62"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="60"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="68"/>
       <c r="G82" s="62"/>
       <c r="H82" s="56" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5323,17 +5323,17 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="71"/>
-      <c r="B83" s="73" t="s">
+      <c r="A83" s="59"/>
+      <c r="B83" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="65" t="s">
+      <c r="C83" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="D83" s="67"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="61"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="69"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5364,12 +5364,12 @@
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="72"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="62"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
       <c r="G84" s="62"/>
       <c r="H84" s="56" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5391,15 +5391,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="74" t="s">
+      <c r="A85" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B85" s="75"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="80"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="118"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="75"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
@@ -5443,13 +5443,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="77"/>
-      <c r="B86" s="78"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="79"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="119"/>
+      <c r="A86" s="80"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="81"/>
+      <c r="D86" s="82"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="76"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5493,16 +5493,16 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="71">
+      <c r="A87" s="59">
         <v>1</v>
       </c>
-      <c r="B87" s="65" t="s">
+      <c r="B87" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="66"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
       <c r="G87" s="57"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5521,12 +5521,12 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="72"/>
-      <c r="B88" s="68"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
       <c r="G88" s="58"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5545,17 +5545,17 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="71"/>
-      <c r="B89" s="73" t="s">
+      <c r="A89" s="59"/>
+      <c r="B89" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="65" t="s">
+      <c r="C89" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="67"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="61"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="69"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5583,12 +5583,12 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="72"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="62"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="60"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="68"/>
+      <c r="F90" s="68"/>
       <c r="G90" s="62"/>
       <c r="H90" s="56" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5610,17 +5610,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="71"/>
-      <c r="B91" s="73" t="s">
+      <c r="A91" s="59"/>
+      <c r="B91" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="124" t="s">
+      <c r="C91" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D91" s="67"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="61"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="69"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5648,12 +5648,12 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="72"/>
+      <c r="A92" s="60"/>
       <c r="B92" s="62"/>
-      <c r="C92" s="68"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="60"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
       <c r="G92" s="62"/>
       <c r="H92" s="56" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5675,16 +5675,16 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="71">
+      <c r="A93" s="59">
         <v>2</v>
       </c>
-      <c r="B93" s="65" t="s">
+      <c r="B93" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="66"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="63"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="73"/>
+      <c r="F93" s="73"/>
       <c r="G93" s="57"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5703,12 +5703,12 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="72"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
+      <c r="A94" s="60"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74"/>
       <c r="G94" s="58"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5727,17 +5727,17 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="71"/>
-      <c r="B95" s="73" t="s">
+      <c r="A95" s="59"/>
+      <c r="B95" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="65" t="s">
+      <c r="C95" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="67"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="61"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="69"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5765,12 +5765,12 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="72"/>
+      <c r="A96" s="60"/>
       <c r="B96" s="62"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="60"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="68"/>
+      <c r="F96" s="68"/>
       <c r="G96" s="62"/>
       <c r="H96" s="56" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5792,17 +5792,17 @@
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="71"/>
-      <c r="B97" s="73" t="s">
+      <c r="A97" s="59"/>
+      <c r="B97" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="65" t="s">
+      <c r="C97" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="67"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="61"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="69"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5830,12 +5830,12 @@
       <c r="S97" s="31"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="72"/>
+      <c r="A98" s="60"/>
       <c r="B98" s="62"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="60"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="68"/>
+      <c r="F98" s="68"/>
       <c r="G98" s="62"/>
       <c r="H98" s="56" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5857,15 +5857,15 @@
       <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="74" t="s">
+      <c r="A99" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B99" s="75"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="76"/>
-      <c r="E99" s="80"/>
-      <c r="F99" s="80"/>
-      <c r="G99" s="118"/>
+      <c r="B99" s="78"/>
+      <c r="C99" s="78"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="83"/>
+      <c r="G99" s="75"/>
       <c r="H99" s="20" t="s">
         <v>19</v>
       </c>
@@ -5909,13 +5909,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="77"/>
-      <c r="B100" s="78"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="79"/>
-      <c r="E100" s="81"/>
-      <c r="F100" s="81"/>
-      <c r="G100" s="119"/>
+      <c r="A100" s="80"/>
+      <c r="B100" s="81"/>
+      <c r="C100" s="81"/>
+      <c r="D100" s="82"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="84"/>
+      <c r="G100" s="76"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5959,16 +5959,16 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="71">
+      <c r="A101" s="59">
         <v>1</v>
       </c>
-      <c r="B101" s="65" t="s">
+      <c r="B101" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="66"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="63"/>
-      <c r="F101" s="63"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
       <c r="G101" s="57"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5987,12 +5987,12 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="72"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
       <c r="G102" s="58"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -6011,17 +6011,17 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="71"/>
-      <c r="B103" s="73" t="s">
+      <c r="A103" s="59"/>
+      <c r="B103" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="65" t="s">
+      <c r="C103" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="D103" s="67"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="61"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="69"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6049,12 +6049,12 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="72"/>
+      <c r="A104" s="60"/>
       <c r="B104" s="62"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="60"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="68"/>
+      <c r="F104" s="68"/>
       <c r="G104" s="62"/>
       <c r="H104" s="56" t="str">
         <f>IF(E103="","","実績")</f>
@@ -6076,17 +6076,17 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="71"/>
-      <c r="B105" s="73" t="s">
+      <c r="A105" s="59"/>
+      <c r="B105" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="65" t="s">
+      <c r="C105" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D105" s="67"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="61"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="69"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -6114,12 +6114,12 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="72"/>
+      <c r="A106" s="60"/>
       <c r="B106" s="62"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="60"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="68"/>
+      <c r="F106" s="68"/>
       <c r="G106" s="62"/>
       <c r="H106" s="56" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6141,16 +6141,16 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="71">
+      <c r="A107" s="59">
         <v>2</v>
       </c>
-      <c r="B107" s="65" t="s">
+      <c r="B107" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="66"/>
-      <c r="D107" s="67"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="63"/>
+      <c r="C107" s="71"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="73"/>
       <c r="G107" s="57"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6169,12 +6169,12 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="72"/>
-      <c r="B108" s="68"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
+      <c r="A108" s="60"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="72"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
       <c r="G108" s="58"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6193,17 +6193,17 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="71"/>
-      <c r="B109" s="73" t="s">
+      <c r="A109" s="59"/>
+      <c r="B109" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="65" t="s">
+      <c r="C109" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="67"/>
-      <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="61"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="69"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6231,12 +6231,12 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="72"/>
+      <c r="A110" s="60"/>
       <c r="B110" s="62"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="60"/>
-      <c r="F110" s="60"/>
+      <c r="C110" s="65"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="68"/>
+      <c r="F110" s="68"/>
       <c r="G110" s="62"/>
       <c r="H110" s="56" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6258,17 +6258,17 @@
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="71"/>
-      <c r="B111" s="73" t="s">
+      <c r="A111" s="59"/>
+      <c r="B111" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="65" t="s">
+      <c r="C111" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D111" s="67"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="61"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="69"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6296,12 +6296,12 @@
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="72"/>
+      <c r="A112" s="60"/>
       <c r="B112" s="62"/>
-      <c r="C112" s="68"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="60"/>
-      <c r="F112" s="60"/>
+      <c r="C112" s="65"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="68"/>
       <c r="G112" s="62"/>
       <c r="H112" s="56" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6338,95 +6338,208 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -6451,208 +6564,95 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L22:S22 M21:S21 L25:S26 M27:S27 M29:S29 L66:S66 Q65:S65 L65:O65 L28:O28 Q28:S28 L30:S36">
@@ -6740,15 +6740,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6932,6 +6923,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6942,14 +6942,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD03FED8-A00F-4FCB-A8E4-19FD98D3DE82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6965,4 +6957,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/15_WBSガントチャート(4日目記入済み).xlsx
+++ b/15_WBSガントチャート(4日目記入済み).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04291847-5F7A-4A64-B224-60C0B3FC20E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116CF5F-3215-4EAA-8373-F3FFEDAF496B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1050" yWindow="795" windowWidth="15630" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="73">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -572,6 +572,33 @@
     <t>三上</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>5日目</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6日目</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1560,6 +1587,42 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1569,200 +1632,360 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2335,13 +2558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S113"/>
+  <dimension ref="A1:W113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="102" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="P64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S68" sqref="S68"/>
+      <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2359,121 +2582,145 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="85" t="s">
+    <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="115">
+      <c r="L1" s="82">
         <v>43984</v>
       </c>
-      <c r="M1" s="116"/>
-      <c r="N1" s="115">
+      <c r="M1" s="83"/>
+      <c r="N1" s="82">
         <v>43985</v>
       </c>
-      <c r="O1" s="116"/>
-      <c r="P1" s="115">
+      <c r="O1" s="83"/>
+      <c r="P1" s="82">
         <v>43986</v>
       </c>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="115">
+      <c r="Q1" s="83"/>
+      <c r="R1" s="82">
         <v>43987</v>
       </c>
-      <c r="S1" s="116"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="119" t="s">
+      <c r="S1" s="83"/>
+      <c r="T1" s="82">
+        <v>43990</v>
+      </c>
+      <c r="U1" s="83"/>
+      <c r="V1" s="82">
+        <v>43991</v>
+      </c>
+      <c r="W1" s="83"/>
+    </row>
+    <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="102"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="118"/>
-      <c r="N2" s="117" t="s">
+      <c r="M2" s="85"/>
+      <c r="N2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="117"/>
-      <c r="P2" s="120" t="s">
+      <c r="O2" s="84"/>
+      <c r="P2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="117" t="s">
+      <c r="Q2" s="85"/>
+      <c r="R2" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="118"/>
-    </row>
-    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="101"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="123" t="s">
+      <c r="S2" s="85"/>
+      <c r="T2" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="85"/>
+      <c r="V2" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="85"/>
+    </row>
+    <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="102"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="122"/>
-      <c r="N3" s="121" t="s">
+      <c r="M3" s="89"/>
+      <c r="N3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="121" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="124" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="124"/>
-    </row>
-    <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="96"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="W3" s="91"/>
+    </row>
+    <row r="4" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="103"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="94"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2498,17 +2745,29 @@
       <c r="S4" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="103" t="s">
+      <c r="T4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="90"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2550,15 +2809,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="91"/>
+      <c r="T5" s="27">
+        <f t="shared" ref="T5:U5" si="1">SUM(T7,T23,T43,T59,T77,T85,T99)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="27">
+        <f t="shared" ref="V5:W5" si="2">SUM(V7,V23,V43,V59,V77,V85,V99)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2569,48 +2844,64 @@
         <v>14</v>
       </c>
       <c r="L6" s="47">
-        <f t="shared" ref="L6:S6" si="1">SUM(M8,M24,M44,M60,M78,M86)</f>
+        <f t="shared" ref="L6:S6" si="3">SUM(M8,M24,M44,M60,M78,M86)</f>
         <v>14.75</v>
       </c>
       <c r="M6" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
       <c r="N6" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="O6" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.9</v>
       </c>
       <c r="P6" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18.5</v>
       </c>
       <c r="Q6" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.5</v>
       </c>
       <c r="R6" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20.5</v>
       </c>
       <c r="S6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="109" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="47">
+        <f t="shared" ref="T6" si="4">SUM(U8,U24,U44,U60,U78,U86)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="47">
+        <f t="shared" ref="U6" si="5">SUM(V8,V24,V44,V60,V78,V86)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="47">
+        <f t="shared" ref="V6" si="6">SUM(W8,W24,W44,W60,W78,W86)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="47">
+        <f t="shared" ref="W6" si="7">SUM(X8,X24,X44,X60,X78,X86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="112"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2621,46 +2912,62 @@
         <v>18</v>
       </c>
       <c r="L7" s="40">
-        <f t="shared" ref="L7:S7" si="2">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
+        <f t="shared" ref="L7:W7" si="8">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
         <v>14</v>
       </c>
       <c r="M7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="N7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S7" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="113"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="116"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2671,49 +2978,65 @@
         <v>25</v>
       </c>
       <c r="L8" s="38">
-        <f t="shared" ref="L8:S8" si="3">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
+        <f t="shared" ref="L8:W8" si="9">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
         <v>14</v>
       </c>
       <c r="M8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="N8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S8" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="71">
         <v>1</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="57"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2730,14 +3053,18 @@
       <c r="Q9" s="31"/>
       <c r="R9" s="31"/>
       <c r="S9" s="31"/>
-    </row>
-    <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+    </row>
+    <row r="10" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="72"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="58"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2754,19 +3081,23 @@
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
-    </row>
-    <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="59"/>
-      <c r="B11" s="61" t="s">
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+    </row>
+    <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="71"/>
+      <c r="B11" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="69"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2791,14 +3122,18 @@
       <c r="Q11" s="31"/>
       <c r="R11" s="31"/>
       <c r="S11" s="31"/>
-    </row>
-    <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+    </row>
+    <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="72"/>
       <c r="B12" s="62"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="62"/>
       <c r="H12" s="56" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2826,19 +3161,23 @@
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
-    </row>
-    <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="59"/>
-      <c r="B13" s="61" t="s">
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+    </row>
+    <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="71"/>
+      <c r="B13" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="69"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2863,14 +3202,18 @@
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
-    </row>
-    <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+    </row>
+    <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="72"/>
       <c r="B14" s="62"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="62"/>
       <c r="H14" s="56" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2898,18 +3241,22 @@
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
-    </row>
-    <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="59">
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+    </row>
+    <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="71">
         <v>2</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="57"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2926,14 +3273,18 @@
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
-    </row>
-    <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="60"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+    </row>
+    <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="58"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2950,19 +3301,23 @@
       <c r="Q16" s="32"/>
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
-    </row>
-    <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="59"/>
-      <c r="B17" s="61" t="s">
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+    </row>
+    <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="71"/>
+      <c r="B17" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="69"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -2974,7 +3329,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" ref="K17:K22" si="4">SUM(L17:S17)</f>
+        <f t="shared" ref="K17:K22" si="10">SUM(L17:S17)</f>
         <v>3</v>
       </c>
       <c r="L17" s="30">
@@ -2989,14 +3344,18 @@
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
-    </row>
-    <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="60"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+    </row>
+    <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="72"/>
       <c r="B18" s="62"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="62"/>
       <c r="H18" s="56" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3009,7 +3368,7 @@
         <v>5</v>
       </c>
       <c r="K18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="L18" s="41">
@@ -3024,19 +3383,23 @@
       <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
-    </row>
-    <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="59"/>
-      <c r="B19" s="61" t="s">
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+    </row>
+    <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="71"/>
+      <c r="B19" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="69"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3048,7 +3411,7 @@
         <v>5</v>
       </c>
       <c r="K19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
       <c r="L19" s="33">
@@ -3064,14 +3427,18 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31"/>
-    </row>
-    <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="60"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+    </row>
+    <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="72"/>
       <c r="B20" s="62"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="62"/>
       <c r="H20" s="56" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3084,7 +3451,7 @@
         <v>5</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="L20" s="41">
@@ -3099,19 +3466,23 @@
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-    </row>
-    <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
-      <c r="B21" s="61" t="s">
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+    </row>
+    <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="71"/>
+      <c r="B21" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="69"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3136,14 +3507,18 @@
       <c r="Q21" s="31"/>
       <c r="R21" s="31"/>
       <c r="S21" s="31"/>
-    </row>
-    <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="60"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+    </row>
+    <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="72"/>
       <c r="B22" s="62"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="62"/>
       <c r="H22" s="56" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3156,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L22" s="41"/>
@@ -3169,17 +3544,21 @@
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
-    </row>
-    <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="77" t="s">
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+    </row>
+    <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="75"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3190,46 +3569,62 @@
         <v>15.5</v>
       </c>
       <c r="L23" s="34">
-        <f t="shared" ref="L23:Q23" si="5">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=1)*L$25:L$42)</f>
+        <f t="shared" ref="L23:Q23" si="11">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=1)*L$25:L$42)</f>
         <v>0</v>
       </c>
       <c r="M23" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10.75</v>
       </c>
       <c r="N23" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.75</v>
       </c>
       <c r="O23" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P23" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q23" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R23" s="35">
-        <f t="shared" ref="R23:S23" si="6">SUMPRODUCT((MOD(ROW(R$25:R$42),2)=1)*R$25:R$42)</f>
+        <f t="shared" ref="R23:W23" si="12">SUMPRODUCT((MOD(ROW(R$25:R$42),2)=1)*R$25:R$42)</f>
         <v>0</v>
       </c>
       <c r="S23" s="35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="76"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="119"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3240,49 +3635,65 @@
         <v>20.85</v>
       </c>
       <c r="L24" s="42">
-        <f t="shared" ref="L24:S24" si="7">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=0)*L$25:L$42)</f>
+        <f t="shared" ref="L24:W24" si="13">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=0)*L$25:L$42)</f>
         <v>0</v>
       </c>
       <c r="M24" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.75</v>
       </c>
       <c r="N24" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>13.5</v>
       </c>
       <c r="O24" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>12.5</v>
       </c>
       <c r="P24" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.9</v>
       </c>
       <c r="Q24" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R24" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S24" s="36">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="59">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="71">
         <v>1</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="57"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3299,14 +3710,18 @@
       <c r="Q25" s="31"/>
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
-    </row>
-    <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="60"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+    </row>
+    <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="72"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
       <c r="G26" s="58"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3323,19 +3738,23 @@
       <c r="Q26" s="32"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
-    </row>
-    <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="59"/>
-      <c r="B27" s="61" t="s">
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+    </row>
+    <row r="27" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="71"/>
+      <c r="B27" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="69"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3360,14 +3779,18 @@
       <c r="Q27" s="31"/>
       <c r="R27" s="31"/>
       <c r="S27" s="31"/>
-    </row>
-    <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="60"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+    </row>
+    <row r="28" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="72"/>
       <c r="B28" s="62"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="62"/>
       <c r="H28" s="56" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3380,7 +3803,7 @@
         <v>3</v>
       </c>
       <c r="K28" s="10">
-        <f t="shared" ref="K28:K34" si="8">SUM(L28:S28)</f>
+        <f t="shared" ref="K28:K34" si="14">SUM(L28:S28)</f>
         <v>2.25</v>
       </c>
       <c r="L28" s="48"/>
@@ -3393,19 +3816,23 @@
       <c r="Q28" s="32"/>
       <c r="R28" s="32"/>
       <c r="S28" s="32"/>
-    </row>
-    <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="59"/>
-      <c r="B29" s="61" t="s">
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+    </row>
+    <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="71"/>
+      <c r="B29" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="69"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3430,14 +3857,18 @@
       <c r="Q29" s="31"/>
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
-    </row>
-    <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="60"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+    </row>
+    <row r="30" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="72"/>
       <c r="B30" s="62"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="62"/>
       <c r="H30" s="56" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3450,7 +3881,7 @@
         <v>2</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.6</v>
       </c>
       <c r="L30" s="48"/>
@@ -3469,19 +3900,23 @@
       <c r="Q30" s="32"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
-    </row>
-    <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="59"/>
-      <c r="B31" s="61" t="s">
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+    </row>
+    <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="71"/>
+      <c r="B31" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="69"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3493,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L31" s="30"/>
@@ -3507,14 +3942,18 @@
       <c r="Q31" s="31"/>
       <c r="R31" s="31"/>
       <c r="S31" s="31"/>
-    </row>
-    <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="60"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+    </row>
+    <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="72"/>
       <c r="B32" s="62"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="62"/>
       <c r="H32" s="56" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3527,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="K32" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L32" s="48"/>
@@ -3541,19 +3980,23 @@
       <c r="Q32" s="32"/>
       <c r="R32" s="32"/>
       <c r="S32" s="32"/>
-    </row>
-    <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="59"/>
-      <c r="B33" s="61" t="s">
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+    </row>
+    <row r="33" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="71"/>
+      <c r="B33" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="69"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3565,7 +4008,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="L33" s="30"/>
@@ -3579,14 +4022,18 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31"/>
-    </row>
-    <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="60"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+    </row>
+    <row r="34" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="72"/>
       <c r="B34" s="62"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="62"/>
       <c r="H34" s="56" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3599,7 +4046,7 @@
         <v>3</v>
       </c>
       <c r="K34" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4.5</v>
       </c>
       <c r="L34" s="41"/>
@@ -3613,18 +4060,22 @@
       <c r="Q34" s="32"/>
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
-    </row>
-    <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="59">
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+    </row>
+    <row r="35" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="71">
         <v>2</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="57"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3641,14 +4092,18 @@
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
-    </row>
-    <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="60"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+    </row>
+    <row r="36" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="72"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
       <c r="G36" s="58"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3665,19 +4120,23 @@
       <c r="Q36" s="32"/>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
-    </row>
-    <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="59"/>
-      <c r="B37" s="61" t="s">
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+    </row>
+    <row r="37" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="71"/>
+      <c r="B37" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="69"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3703,14 +4162,18 @@
       <c r="Q37" s="31"/>
       <c r="R37" s="31"/>
       <c r="S37" s="31"/>
-    </row>
-    <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="60"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+    </row>
+    <row r="38" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="72"/>
       <c r="B38" s="62"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="62"/>
       <c r="H38" s="56" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3743,19 +4206,23 @@
       <c r="Q38" s="32"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
-    </row>
-    <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="59"/>
-      <c r="B39" s="61" t="s">
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+    </row>
+    <row r="39" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="71"/>
+      <c r="B39" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="69"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="61"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3780,14 +4247,18 @@
       <c r="Q39" s="31"/>
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
-    </row>
-    <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="60"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+    </row>
+    <row r="40" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="72"/>
       <c r="B40" s="62"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
       <c r="G40" s="62"/>
       <c r="H40" s="56" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3820,19 +4291,23 @@
       <c r="Q40" s="32"/>
       <c r="R40" s="32"/>
       <c r="S40" s="32"/>
-    </row>
-    <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="59"/>
-      <c r="B41" s="61" t="s">
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+    </row>
+    <row r="41" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="71"/>
+      <c r="B41" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="69"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="61"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3857,14 +4332,18 @@
       <c r="Q41" s="31"/>
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
-    </row>
-    <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="60"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+    </row>
+    <row r="42" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="72"/>
       <c r="B42" s="62"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
       <c r="G42" s="62"/>
       <c r="H42" s="56" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3897,17 +4376,21 @@
       <c r="Q42" s="32"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
-    </row>
-    <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="77" t="s">
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+    </row>
+    <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="118"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3918,11 +4401,11 @@
         <v>15.25</v>
       </c>
       <c r="L43" s="35">
-        <f t="shared" ref="L43:M43" si="9">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=1)*L$45:L$58)</f>
+        <f t="shared" ref="L43:M43" si="15">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=1)*L$45:L$58)</f>
         <v>0</v>
       </c>
       <c r="M43" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N43" s="35">
@@ -3930,34 +4413,50 @@
         <v>8.75</v>
       </c>
       <c r="O43" s="35">
-        <f t="shared" ref="O43:S43" si="10">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
+        <f t="shared" ref="O43:W43" si="16">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
         <v>6.5</v>
       </c>
       <c r="P43" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q43" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R43" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S43" s="35">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="80"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="76"/>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="77"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="119"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -3968,7 +4467,7 @@
         <v>24.5</v>
       </c>
       <c r="L44" s="36">
-        <f t="shared" ref="L44:S44" si="11">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
+        <f t="shared" ref="L44:W44" si="17">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
         <v>0</v>
       </c>
       <c r="M44" s="36">
@@ -3976,41 +4475,57 @@
         <v>0</v>
       </c>
       <c r="N44" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O44" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>7.5</v>
       </c>
       <c r="P44" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="Q44" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="R44" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S44" s="36">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="59">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="71">
         <v>1</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
       <c r="G45" s="57"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -4027,14 +4542,18 @@
       <c r="Q45" s="31"/>
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
-    </row>
-    <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="60"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+    </row>
+    <row r="46" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="72"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
       <c r="G46" s="58"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -4051,19 +4570,23 @@
       <c r="Q46" s="32"/>
       <c r="R46" s="32"/>
       <c r="S46" s="32"/>
-    </row>
-    <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="59"/>
-      <c r="B47" s="61" t="s">
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+    </row>
+    <row r="47" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="71"/>
+      <c r="B47" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="64"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="69"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="61"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -4089,14 +4612,18 @@
       <c r="Q47" s="31"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
-    </row>
-    <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="60"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+    </row>
+    <row r="48" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="72"/>
       <c r="B48" s="62"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
       <c r="G48" s="62"/>
       <c r="H48" s="56" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4129,19 +4656,23 @@
       </c>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
-    </row>
-    <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="59"/>
-      <c r="B49" s="61" t="s">
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+    </row>
+    <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="71"/>
+      <c r="B49" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="69"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="61"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4167,14 +4698,18 @@
       <c r="Q49" s="31"/>
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
-    </row>
-    <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="60"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+    </row>
+    <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="72"/>
       <c r="B50" s="62"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
       <c r="G50" s="62"/>
       <c r="H50" s="56" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4201,18 +4736,22 @@
       </c>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
-    </row>
-    <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="59">
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+    </row>
+    <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="71">
         <v>2</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
       <c r="G51" s="57"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4229,14 +4768,18 @@
       <c r="Q51" s="31"/>
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
-    </row>
-    <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="60"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+    </row>
+    <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="72"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
       <c r="G52" s="58"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4253,19 +4796,23 @@
       <c r="Q52" s="32"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
-    </row>
-    <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="59"/>
-      <c r="B53" s="61" t="s">
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+    </row>
+    <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="71"/>
+      <c r="B53" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="69"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="61"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4277,7 +4824,7 @@
         <v>5</v>
       </c>
       <c r="K53" s="9">
-        <f t="shared" ref="K53:K58" si="12">SUM(L53:S53)</f>
+        <f t="shared" ref="K53:K58" si="18">SUM(L53:S53)</f>
         <v>3</v>
       </c>
       <c r="L53" s="33"/>
@@ -4291,14 +4838,18 @@
       <c r="Q53" s="31"/>
       <c r="R53" s="31"/>
       <c r="S53" s="31"/>
-    </row>
-    <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="60"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="31"/>
+      <c r="W53" s="31"/>
+    </row>
+    <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="72"/>
       <c r="B54" s="62"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
       <c r="G54" s="62"/>
       <c r="H54" s="56" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4311,7 +4862,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1.5</v>
       </c>
       <c r="L54" s="41"/>
@@ -4325,19 +4876,23 @@
       </c>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
-    </row>
-    <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="59"/>
-      <c r="B55" s="61" t="s">
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+    </row>
+    <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="71"/>
+      <c r="B55" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="64"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="69"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="61"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4349,7 +4904,7 @@
         <v>5</v>
       </c>
       <c r="K55" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="L55" s="33"/>
@@ -4363,14 +4918,18 @@
       <c r="Q55" s="31"/>
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
-    </row>
-    <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="60"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="31"/>
+      <c r="V55" s="31"/>
+      <c r="W55" s="31"/>
+    </row>
+    <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="72"/>
       <c r="B56" s="62"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
       <c r="G56" s="62"/>
       <c r="H56" s="56" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4383,7 +4942,7 @@
         <v>6</v>
       </c>
       <c r="K56" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1.5</v>
       </c>
       <c r="L56" s="41"/>
@@ -4397,19 +4956,23 @@
       </c>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
-    </row>
-    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="59"/>
-      <c r="B57" s="61" t="s">
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+    </row>
+    <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="71"/>
+      <c r="B57" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="64"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="69"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="61"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4421,7 +4984,7 @@
         <v>2</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
       <c r="L57" s="33"/>
@@ -4435,14 +4998,18 @@
       <c r="Q57" s="31"/>
       <c r="R57" s="31"/>
       <c r="S57" s="31"/>
-    </row>
-    <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="60"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="31"/>
+      <c r="V57" s="31"/>
+      <c r="W57" s="31"/>
+    </row>
+    <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="72"/>
       <c r="B58" s="62"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
       <c r="G58" s="62"/>
       <c r="H58" s="56" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4455,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
       <c r="L58" s="43"/>
@@ -4469,17 +5036,21 @@
       </c>
       <c r="R58" s="44"/>
       <c r="S58" s="44"/>
-    </row>
-    <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="77" t="s">
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="44"/>
+    </row>
+    <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="75"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="118"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -4490,15 +5061,15 @@
         <v>26</v>
       </c>
       <c r="L59" s="35">
-        <f t="shared" ref="L59:N59" si="13">SUMPRODUCT((MOD(ROW(L$61:L$76),2)=1)*L$61:L$76)</f>
+        <f t="shared" ref="L59:N59" si="19">SUMPRODUCT((MOD(ROW(L$61:L$76),2)=1)*L$61:L$76)</f>
         <v>0</v>
       </c>
       <c r="M59" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N59" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O59" s="35">
@@ -4506,30 +5077,46 @@
         <v>13.5</v>
       </c>
       <c r="P59" s="35">
-        <f t="shared" ref="P59:S59" si="14">SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
+        <f t="shared" ref="P59:W59" si="20">SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
         <v>12.5</v>
       </c>
       <c r="Q59" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R59" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S59" s="35">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="80"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="76"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="77"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="119"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4544,45 +5131,61 @@
         <v>0</v>
       </c>
       <c r="M60" s="36">
-        <f t="shared" ref="M60:S60" si="15">SUMPRODUCT((MOD(ROW(M$61:M$76),2)=0)*M$61:M$76)</f>
+        <f t="shared" ref="M60:W60" si="21">SUMPRODUCT((MOD(ROW(M$61:M$76),2)=0)*M$61:M$76)</f>
         <v>0</v>
       </c>
       <c r="N60" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O60" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P60" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q60" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>7.5</v>
       </c>
       <c r="R60" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>16.5</v>
       </c>
       <c r="S60" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>20.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="59">
+      <c r="T60" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="71">
         <v>1</v>
       </c>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
       <c r="G61" s="57"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4599,14 +5202,18 @@
       <c r="Q61" s="31"/>
       <c r="R61" s="31"/>
       <c r="S61" s="31"/>
-    </row>
-    <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="60"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="31"/>
+      <c r="V61" s="31"/>
+      <c r="W61" s="31"/>
+    </row>
+    <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="72"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
       <c r="G62" s="58"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4623,19 +5230,23 @@
       <c r="Q62" s="32"/>
       <c r="R62" s="32"/>
       <c r="S62" s="32"/>
-    </row>
-    <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="59"/>
-      <c r="B63" s="61" t="s">
+      <c r="T62" s="32"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+    </row>
+    <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="71"/>
+      <c r="B63" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="63" t="s">
+      <c r="C63" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="64"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="69"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="61"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4647,7 +5258,7 @@
         <v>6</v>
       </c>
       <c r="K63" s="9">
-        <f t="shared" ref="K63:K68" si="16">SUM(L63:S63)</f>
+        <f t="shared" ref="K63:K68" si="22">SUM(L63:S63)</f>
         <v>6</v>
       </c>
       <c r="L63" s="33"/>
@@ -4661,14 +5272,18 @@
       <c r="Q63" s="31"/>
       <c r="R63" s="31"/>
       <c r="S63" s="31"/>
-    </row>
-    <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="60"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="31"/>
+      <c r="V63" s="31"/>
+      <c r="W63" s="31"/>
+    </row>
+    <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="72"/>
       <c r="B64" s="62"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
       <c r="G64" s="62"/>
       <c r="H64" s="56" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4681,7 +5296,7 @@
         <v>6</v>
       </c>
       <c r="K64" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="L64" s="41"/>
@@ -4695,19 +5310,23 @@
       </c>
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
-    </row>
-    <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="59"/>
-      <c r="B65" s="61" t="s">
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+    </row>
+    <row r="65" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="71"/>
+      <c r="B65" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="69"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="61"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4719,7 +5338,7 @@
         <v>6</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>7.5</v>
       </c>
       <c r="L65" s="33"/>
@@ -4732,14 +5351,18 @@
       <c r="Q65" s="31"/>
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
-    </row>
-    <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="60"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="31"/>
+      <c r="V65" s="31"/>
+      <c r="W65" s="31"/>
+    </row>
+    <row r="66" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="72"/>
       <c r="B66" s="62"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
       <c r="G66" s="62"/>
       <c r="H66" s="56" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4752,7 +5375,7 @@
         <v>6</v>
       </c>
       <c r="K66" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>13.5</v>
       </c>
       <c r="L66" s="41"/>
@@ -4772,19 +5395,23 @@
         <f>1.25*6</f>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="59"/>
-      <c r="B67" s="61" t="s">
+      <c r="T66" s="32"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="32"/>
+    </row>
+    <row r="67" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="71"/>
+      <c r="B67" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="63" t="s">
+      <c r="C67" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="64"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="69"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="61"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4796,7 +5423,7 @@
         <v>6</v>
       </c>
       <c r="K67" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="L67" s="33"/>
@@ -4810,14 +5437,18 @@
       <c r="Q67" s="31"/>
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
-    </row>
-    <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="60"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="31"/>
+      <c r="V67" s="31"/>
+      <c r="W67" s="31"/>
+    </row>
+    <row r="68" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="72"/>
       <c r="B68" s="62"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
       <c r="G68" s="62"/>
       <c r="H68" s="56" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4826,7 +5457,7 @@
       <c r="I68" s="56"/>
       <c r="J68" s="56"/>
       <c r="K68" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="L68" s="41"/>
@@ -4843,18 +5474,22 @@
         <f>1*6</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="59">
+      <c r="T68" s="32"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="32"/>
+    </row>
+    <row r="69" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="71">
         <v>2</v>
       </c>
-      <c r="B69" s="63" t="s">
+      <c r="B69" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="71"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
       <c r="G69" s="57"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4871,14 +5506,18 @@
       <c r="Q69" s="31"/>
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
-    </row>
-    <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="60"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="31"/>
+      <c r="V69" s="31"/>
+      <c r="W69" s="31"/>
+    </row>
+    <row r="70" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="72"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
       <c r="G70" s="58"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4895,19 +5534,23 @@
       <c r="Q70" s="32"/>
       <c r="R70" s="32"/>
       <c r="S70" s="32"/>
-    </row>
-    <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="59"/>
-      <c r="B71" s="61" t="s">
+      <c r="T70" s="32"/>
+      <c r="U70" s="32"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="32"/>
+    </row>
+    <row r="71" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="71"/>
+      <c r="B71" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="63" t="s">
+      <c r="C71" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="64"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="69"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="61"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4919,7 +5562,7 @@
         <v>6</v>
       </c>
       <c r="K71" s="9">
-        <f t="shared" ref="K71:K76" si="17">SUM(L71:S71)</f>
+        <f t="shared" ref="K71:K76" si="23">SUM(L71:S71)</f>
         <v>3</v>
       </c>
       <c r="L71" s="33"/>
@@ -4933,14 +5576,18 @@
       <c r="Q71" s="31"/>
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
-    </row>
-    <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="60"/>
+      <c r="T71" s="31"/>
+      <c r="U71" s="31"/>
+      <c r="V71" s="31"/>
+      <c r="W71" s="31"/>
+    </row>
+    <row r="72" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="72"/>
       <c r="B72" s="62"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="68"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
       <c r="G72" s="62"/>
       <c r="H72" s="56" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4949,7 +5596,7 @@
       <c r="I72" s="56"/>
       <c r="J72" s="56"/>
       <c r="K72" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="L72" s="41"/>
@@ -4963,19 +5610,23 @@
         <f>0.5*6</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="59"/>
-      <c r="B73" s="61" t="s">
+      <c r="T72" s="32"/>
+      <c r="U72" s="32"/>
+      <c r="V72" s="32"/>
+      <c r="W72" s="32"/>
+    </row>
+    <row r="73" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="71"/>
+      <c r="B73" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="63" t="s">
+      <c r="C73" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D73" s="64"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="69"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="61"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4987,7 +5638,7 @@
         <v>6</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="L73" s="33"/>
@@ -5001,14 +5652,18 @@
       <c r="Q73" s="31"/>
       <c r="R73" s="31"/>
       <c r="S73" s="31"/>
-    </row>
-    <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="60"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="31"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="31"/>
+    </row>
+    <row r="74" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="72"/>
       <c r="B74" s="62"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
       <c r="G74" s="62"/>
       <c r="H74" s="56" t="str">
         <f>IF(E73="","","実績")</f>
@@ -5017,7 +5672,7 @@
       <c r="I74" s="56"/>
       <c r="J74" s="56"/>
       <c r="K74" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="L74" s="41"/>
@@ -5031,19 +5686,23 @@
         <f>0.5*6</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="59"/>
-      <c r="B75" s="61" t="s">
+      <c r="T74" s="32"/>
+      <c r="U74" s="32"/>
+      <c r="V74" s="32"/>
+      <c r="W74" s="32"/>
+    </row>
+    <row r="75" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="71"/>
+      <c r="B75" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="63" t="s">
+      <c r="C75" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="69"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="61"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -5055,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="L75" s="33"/>
@@ -5069,14 +5728,18 @@
       <c r="Q75" s="31"/>
       <c r="R75" s="31"/>
       <c r="S75" s="31"/>
-    </row>
-    <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="60"/>
+      <c r="T75" s="31"/>
+      <c r="U75" s="31"/>
+      <c r="V75" s="31"/>
+      <c r="W75" s="31"/>
+    </row>
+    <row r="76" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="72"/>
       <c r="B76" s="62"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
       <c r="G76" s="62"/>
       <c r="H76" s="56" t="str">
         <f>IF(E75="","","実績")</f>
@@ -5085,7 +5748,7 @@
       <c r="I76" s="56"/>
       <c r="J76" s="56"/>
       <c r="K76" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="L76" s="43"/>
@@ -5099,17 +5762,21 @@
         <f>0.5*2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="77" t="s">
+      <c r="T76" s="44"/>
+      <c r="U76" s="44"/>
+      <c r="V76" s="44"/>
+      <c r="W76" s="44"/>
+    </row>
+    <row r="77" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="78"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="75"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="80"/>
+      <c r="G77" s="118"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -5120,23 +5787,23 @@
         <v>29.25</v>
       </c>
       <c r="L77" s="35">
-        <f t="shared" ref="L77:P77" si="18">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
+        <f t="shared" ref="L77:P77" si="24">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M77" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N77" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O77" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P77" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>3.75</v>
       </c>
       <c r="Q77" s="35">
@@ -5144,22 +5811,38 @@
         <v>19.5</v>
       </c>
       <c r="R77" s="35">
-        <f t="shared" ref="R77:S77" si="19">SUMPRODUCT((MOD(ROW(R$79:R$84),2)=1)*R$79:R$84)</f>
+        <f t="shared" ref="R77:W77" si="25">SUMPRODUCT((MOD(ROW(R$79:R$84),2)=1)*R$79:R$84)</f>
         <v>6</v>
       </c>
       <c r="S77" s="35">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="80"/>
-      <c r="B78" s="81"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="76"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="77"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="119"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5170,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="36">
-        <f t="shared" ref="L78:S78" si="20">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
+        <f t="shared" ref="L78:W78" si="26">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M78" s="36">
@@ -5178,41 +5861,57 @@
         <v>0</v>
       </c>
       <c r="N78" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O78" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P78" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q78" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R78" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S78" s="36">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="59">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="36">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="36">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="36">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W78" s="36">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="71">
         <v>1</v>
       </c>
-      <c r="B79" s="63" t="s">
+      <c r="B79" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="71"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
       <c r="G79" s="57"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5229,14 +5928,18 @@
       <c r="Q79" s="31"/>
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
-    </row>
-    <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="60"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="72"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
+      <c r="T79" s="31"/>
+      <c r="U79" s="31"/>
+      <c r="V79" s="31"/>
+      <c r="W79" s="31"/>
+    </row>
+    <row r="80" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="72"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
       <c r="G80" s="58"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5253,19 +5956,23 @@
       <c r="Q80" s="32"/>
       <c r="R80" s="32"/>
       <c r="S80" s="32"/>
-    </row>
-    <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="59"/>
-      <c r="B81" s="61" t="s">
+      <c r="T80" s="32"/>
+      <c r="U80" s="32"/>
+      <c r="V80" s="32"/>
+      <c r="W80" s="32"/>
+    </row>
+    <row r="81" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="71"/>
+      <c r="B81" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="63" t="s">
+      <c r="C81" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D81" s="64"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="69"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="61"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5277,7 +5984,7 @@
         <v>6</v>
       </c>
       <c r="K81" s="9">
-        <f t="shared" ref="K81:K84" si="21">SUM(L81:S81)</f>
+        <f t="shared" ref="K81:K84" si="27">SUM(L81:S81)</f>
         <v>18.75</v>
       </c>
       <c r="L81" s="33"/>
@@ -5294,14 +6001,18 @@
       </c>
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
-    </row>
-    <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="60"/>
+      <c r="T81" s="31"/>
+      <c r="U81" s="31"/>
+      <c r="V81" s="31"/>
+      <c r="W81" s="31"/>
+    </row>
+    <row r="82" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="72"/>
       <c r="B82" s="62"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
       <c r="G82" s="62"/>
       <c r="H82" s="56" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5310,7 +6021,7 @@
       <c r="I82" s="56"/>
       <c r="J82" s="56"/>
       <c r="K82" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L82" s="41"/>
@@ -5321,19 +6032,23 @@
       <c r="Q82" s="32"/>
       <c r="R82" s="32"/>
       <c r="S82" s="32"/>
-    </row>
-    <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="59"/>
-      <c r="B83" s="61" t="s">
+      <c r="T82" s="32"/>
+      <c r="U82" s="32"/>
+      <c r="V82" s="32"/>
+      <c r="W82" s="32"/>
+    </row>
+    <row r="83" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="71"/>
+      <c r="B83" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="63" t="s">
+      <c r="C83" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="D83" s="64"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="69"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="61"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5345,7 +6060,7 @@
         <v>6</v>
       </c>
       <c r="K83" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>10.5</v>
       </c>
       <c r="L83" s="33"/>
@@ -5362,14 +6077,18 @@
         <v>6</v>
       </c>
       <c r="S83" s="31"/>
-    </row>
-    <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="60"/>
+      <c r="T83" s="31"/>
+      <c r="U83" s="31"/>
+      <c r="V83" s="31"/>
+      <c r="W83" s="31"/>
+    </row>
+    <row r="84" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="72"/>
       <c r="B84" s="62"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
       <c r="G84" s="62"/>
       <c r="H84" s="56" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5378,7 +6097,7 @@
       <c r="I84" s="56"/>
       <c r="J84" s="56"/>
       <c r="K84" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L84" s="41"/>
@@ -5389,17 +6108,21 @@
       <c r="Q84" s="32"/>
       <c r="R84" s="32"/>
       <c r="S84" s="32"/>
-    </row>
-    <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="77" t="s">
+      <c r="T84" s="32"/>
+      <c r="U84" s="32"/>
+      <c r="V84" s="32"/>
+      <c r="W84" s="32"/>
+    </row>
+    <row r="85" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B85" s="78"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="79"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="75"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="80"/>
+      <c r="G85" s="118"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
@@ -5410,23 +6133,23 @@
         <v>5</v>
       </c>
       <c r="L85" s="35">
-        <f t="shared" ref="L85:P85" si="22">SUMPRODUCT((MOD(ROW(L$87:L$98),2)=1)*L$87:L$98)</f>
+        <f t="shared" ref="L85:P85" si="28">SUMPRODUCT((MOD(ROW(L$87:L$98),2)=1)*L$87:L$98)</f>
         <v>0</v>
       </c>
       <c r="M85" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N85" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O85" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P85" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q85" s="35">
@@ -5434,22 +6157,38 @@
         <v>0</v>
       </c>
       <c r="R85" s="35">
-        <f t="shared" ref="R85:S85" si="23">SUMPRODUCT((MOD(ROW(R$87:R$98),2)=1)*R$87:R$98)</f>
+        <f t="shared" ref="R85:W85" si="29">SUMPRODUCT((MOD(ROW(R$87:R$98),2)=1)*R$87:R$98)</f>
         <v>5</v>
       </c>
       <c r="S85" s="35">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="80"/>
-      <c r="B86" s="81"/>
-      <c r="C86" s="81"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="76"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T85" s="35">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="35">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V85" s="35">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W85" s="35">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="77"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="119"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5464,45 +6203,61 @@
         <v>0</v>
       </c>
       <c r="M86" s="36">
-        <f t="shared" ref="M86:S86" si="24">SUMPRODUCT((MOD(ROW(M$87:M$98),2)=0)*M$87:M$98)</f>
+        <f t="shared" ref="M86:W86" si="30">SUMPRODUCT((MOD(ROW(M$87:M$98),2)=0)*M$87:M$98)</f>
         <v>0</v>
       </c>
       <c r="N86" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O86" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P86" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q86" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R86" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S86" s="36">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="59">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T86" s="36">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="U86" s="36">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="36">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W86" s="36">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="71">
         <v>1</v>
       </c>
-      <c r="B87" s="63" t="s">
+      <c r="B87" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="71"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
       <c r="G87" s="57"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5519,14 +6274,18 @@
       <c r="Q87" s="31"/>
       <c r="R87" s="31"/>
       <c r="S87" s="31"/>
-    </row>
-    <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="60"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
+      <c r="T87" s="31"/>
+      <c r="U87" s="31"/>
+      <c r="V87" s="31"/>
+      <c r="W87" s="31"/>
+    </row>
+    <row r="88" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="72"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="64"/>
       <c r="G88" s="58"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5543,19 +6302,23 @@
       <c r="Q88" s="32"/>
       <c r="R88" s="32"/>
       <c r="S88" s="32"/>
-    </row>
-    <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="59"/>
-      <c r="B89" s="61" t="s">
+      <c r="T88" s="32"/>
+      <c r="U88" s="32"/>
+      <c r="V88" s="32"/>
+      <c r="W88" s="32"/>
+    </row>
+    <row r="89" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="71"/>
+      <c r="B89" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="63" t="s">
+      <c r="C89" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="64"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="69"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="61"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5581,14 +6344,18 @@
         <v>1.5</v>
       </c>
       <c r="S89" s="31"/>
-    </row>
-    <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="60"/>
+      <c r="T89" s="31"/>
+      <c r="U89" s="31"/>
+      <c r="V89" s="31"/>
+      <c r="W89" s="31"/>
+    </row>
+    <row r="90" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="72"/>
       <c r="B90" s="62"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="70"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
       <c r="G90" s="62"/>
       <c r="H90" s="56" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5608,19 +6375,23 @@
       <c r="Q90" s="32"/>
       <c r="R90" s="32"/>
       <c r="S90" s="32"/>
-    </row>
-    <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="59"/>
-      <c r="B91" s="61" t="s">
+      <c r="T90" s="32"/>
+      <c r="U90" s="32"/>
+      <c r="V90" s="32"/>
+      <c r="W90" s="32"/>
+    </row>
+    <row r="91" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="71"/>
+      <c r="B91" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="70" t="s">
+      <c r="C91" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="D91" s="64"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="69"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="61"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5646,14 +6417,18 @@
         <v>0.25</v>
       </c>
       <c r="S91" s="31"/>
-    </row>
-    <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="60"/>
+      <c r="T91" s="31"/>
+      <c r="U91" s="31"/>
+      <c r="V91" s="31"/>
+      <c r="W91" s="31"/>
+    </row>
+    <row r="92" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="72"/>
       <c r="B92" s="62"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
       <c r="G92" s="62"/>
       <c r="H92" s="56" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5673,18 +6448,22 @@
       <c r="Q92" s="32"/>
       <c r="R92" s="32"/>
       <c r="S92" s="32"/>
-    </row>
-    <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="59">
+      <c r="T92" s="32"/>
+      <c r="U92" s="32"/>
+      <c r="V92" s="32"/>
+      <c r="W92" s="32"/>
+    </row>
+    <row r="93" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="71">
         <v>2</v>
       </c>
-      <c r="B93" s="63" t="s">
+      <c r="B93" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="71"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="73"/>
-      <c r="F93" s="73"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="63"/>
       <c r="G93" s="57"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5701,14 +6480,18 @@
       <c r="Q93" s="31"/>
       <c r="R93" s="31"/>
       <c r="S93" s="31"/>
-    </row>
-    <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="60"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="72"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="74"/>
+      <c r="T93" s="31"/>
+      <c r="U93" s="31"/>
+      <c r="V93" s="31"/>
+      <c r="W93" s="31"/>
+    </row>
+    <row r="94" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="72"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
       <c r="G94" s="58"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5725,19 +6508,23 @@
       <c r="Q94" s="32"/>
       <c r="R94" s="32"/>
       <c r="S94" s="32"/>
-    </row>
-    <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="59"/>
-      <c r="B95" s="61" t="s">
+      <c r="T94" s="32"/>
+      <c r="U94" s="32"/>
+      <c r="V94" s="32"/>
+      <c r="W94" s="32"/>
+    </row>
+    <row r="95" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="71"/>
+      <c r="B95" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="63" t="s">
+      <c r="C95" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="64"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="69"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="61"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5749,7 +6536,7 @@
         <v>6</v>
       </c>
       <c r="K95" s="9">
-        <f t="shared" ref="K95:K98" si="25">SUM(L95:S95)</f>
+        <f t="shared" ref="K95:K98" si="31">SUM(L95:S95)</f>
         <v>3</v>
       </c>
       <c r="L95" s="33"/>
@@ -5763,14 +6550,18 @@
         <v>3</v>
       </c>
       <c r="S95" s="31"/>
-    </row>
-    <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="60"/>
+      <c r="T95" s="31"/>
+      <c r="U95" s="31"/>
+      <c r="V95" s="31"/>
+      <c r="W95" s="31"/>
+    </row>
+    <row r="96" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="72"/>
       <c r="B96" s="62"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="68"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
       <c r="G96" s="62"/>
       <c r="H96" s="56" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5779,7 +6570,7 @@
       <c r="I96" s="56"/>
       <c r="J96" s="56"/>
       <c r="K96" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L96" s="41"/>
@@ -5790,19 +6581,23 @@
       <c r="Q96" s="32"/>
       <c r="R96" s="32"/>
       <c r="S96" s="32"/>
-    </row>
-    <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="59"/>
-      <c r="B97" s="61" t="s">
+      <c r="T96" s="32"/>
+      <c r="U96" s="32"/>
+      <c r="V96" s="32"/>
+      <c r="W96" s="32"/>
+    </row>
+    <row r="97" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="71"/>
+      <c r="B97" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="63" t="s">
+      <c r="C97" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="64"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="69"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="61"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5814,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="K97" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.25</v>
       </c>
       <c r="L97" s="33"/>
@@ -5828,14 +6623,18 @@
         <v>0.25</v>
       </c>
       <c r="S97" s="31"/>
-    </row>
-    <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="60"/>
+      <c r="T97" s="31"/>
+      <c r="U97" s="31"/>
+      <c r="V97" s="31"/>
+      <c r="W97" s="31"/>
+    </row>
+    <row r="98" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="72"/>
       <c r="B98" s="62"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="68"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
       <c r="G98" s="62"/>
       <c r="H98" s="56" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5844,7 +6643,7 @@
       <c r="I98" s="56"/>
       <c r="J98" s="56"/>
       <c r="K98" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L98" s="43"/>
@@ -5855,17 +6654,21 @@
       <c r="Q98" s="44"/>
       <c r="R98" s="44"/>
       <c r="S98" s="44"/>
-    </row>
-    <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="77" t="s">
+      <c r="T98" s="44"/>
+      <c r="U98" s="44"/>
+      <c r="V98" s="44"/>
+      <c r="W98" s="44"/>
+    </row>
+    <row r="99" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B99" s="78"/>
-      <c r="C99" s="78"/>
-      <c r="D99" s="79"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="75"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="118"/>
       <c r="H99" s="20" t="s">
         <v>19</v>
       </c>
@@ -5876,46 +6679,62 @@
         <v>5.75</v>
       </c>
       <c r="L99" s="35">
-        <f t="shared" ref="L99:R99" si="26">SUMPRODUCT((MOD(ROW(L$101:L$112),2)=1)*L$101:L$112)</f>
+        <f t="shared" ref="L99:V99" si="32">SUMPRODUCT((MOD(ROW(L$101:L$112),2)=1)*L$101:L$112)</f>
         <v>0</v>
       </c>
       <c r="M99" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N99" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O99" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P99" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q99" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R99" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5.75</v>
       </c>
       <c r="S99" s="35">
         <f>SUMPRODUCT((MOD(ROW(S$101:S$112),2)=1)*S$101:S$112)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="80"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="82"/>
-      <c r="E100" s="84"/>
-      <c r="F100" s="84"/>
-      <c r="G100" s="76"/>
+      <c r="T99" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="U99" s="35">
+        <f>SUMPRODUCT((MOD(ROW(U$101:U$112),2)=1)*U$101:U$112)</f>
+        <v>0</v>
+      </c>
+      <c r="V99" s="35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="W99" s="35">
+        <f>SUMPRODUCT((MOD(ROW(W$101:W$112),2)=1)*W$101:W$112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="77"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="81"/>
+      <c r="F100" s="81"/>
+      <c r="G100" s="119"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5930,45 +6749,61 @@
         <v>0</v>
       </c>
       <c r="M100" s="37">
-        <f t="shared" ref="M100:S100" si="27">SUMPRODUCT((MOD(ROW(M$101:M$112),2)=0)*M$101:M$112)</f>
+        <f t="shared" ref="M100:W100" si="33">SUMPRODUCT((MOD(ROW(M$101:M$112),2)=0)*M$101:M$112)</f>
         <v>0</v>
       </c>
       <c r="N100" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O100" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P100" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q100" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R100" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S100" s="37">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="59">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T100" s="37">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="U100" s="37">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="V100" s="37">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="W100" s="37">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="71">
         <v>1</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B101" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="71"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="73"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
       <c r="G101" s="57"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5985,14 +6820,18 @@
       <c r="Q101" s="31"/>
       <c r="R101" s="31"/>
       <c r="S101" s="31"/>
-    </row>
-    <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="60"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
+      <c r="T101" s="31"/>
+      <c r="U101" s="31"/>
+      <c r="V101" s="31"/>
+      <c r="W101" s="31"/>
+    </row>
+    <row r="102" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="72"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
       <c r="G102" s="58"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -6009,19 +6848,23 @@
       <c r="Q102" s="32"/>
       <c r="R102" s="32"/>
       <c r="S102" s="32"/>
-    </row>
-    <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="59"/>
-      <c r="B103" s="61" t="s">
+      <c r="T102" s="32"/>
+      <c r="U102" s="32"/>
+      <c r="V102" s="32"/>
+      <c r="W102" s="32"/>
+    </row>
+    <row r="103" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="71"/>
+      <c r="B103" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="63" t="s">
+      <c r="C103" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D103" s="64"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="69"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="61"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6047,14 +6890,18 @@
         <v>1.5</v>
       </c>
       <c r="S103" s="31"/>
-    </row>
-    <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="60"/>
+      <c r="T103" s="31"/>
+      <c r="U103" s="31"/>
+      <c r="V103" s="31"/>
+      <c r="W103" s="31"/>
+    </row>
+    <row r="104" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="72"/>
       <c r="B104" s="62"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="68"/>
-      <c r="F104" s="68"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
       <c r="G104" s="62"/>
       <c r="H104" s="56" t="str">
         <f>IF(E103="","","実績")</f>
@@ -6074,19 +6921,23 @@
       <c r="Q104" s="32"/>
       <c r="R104" s="32"/>
       <c r="S104" s="32"/>
-    </row>
-    <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="59"/>
-      <c r="B105" s="61" t="s">
+      <c r="T104" s="32"/>
+      <c r="U104" s="32"/>
+      <c r="V104" s="32"/>
+      <c r="W104" s="32"/>
+    </row>
+    <row r="105" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="71"/>
+      <c r="B105" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="63" t="s">
+      <c r="C105" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D105" s="64"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="69"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="61"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -6112,14 +6963,18 @@
         <v>0.75</v>
       </c>
       <c r="S105" s="31"/>
-    </row>
-    <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="60"/>
+      <c r="T105" s="31"/>
+      <c r="U105" s="31"/>
+      <c r="V105" s="31"/>
+      <c r="W105" s="31"/>
+    </row>
+    <row r="106" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="72"/>
       <c r="B106" s="62"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="68"/>
-      <c r="F106" s="68"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60"/>
       <c r="G106" s="62"/>
       <c r="H106" s="56" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6139,18 +6994,22 @@
       <c r="Q106" s="32"/>
       <c r="R106" s="32"/>
       <c r="S106" s="32"/>
-    </row>
-    <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="59">
+      <c r="T106" s="32"/>
+      <c r="U106" s="32"/>
+      <c r="V106" s="32"/>
+      <c r="W106" s="32"/>
+    </row>
+    <row r="107" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="71">
         <v>2</v>
       </c>
-      <c r="B107" s="63" t="s">
+      <c r="B107" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="71"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="73"/>
-      <c r="F107" s="73"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="63"/>
       <c r="G107" s="57"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6167,14 +7026,18 @@
       <c r="Q107" s="31"/>
       <c r="R107" s="31"/>
       <c r="S107" s="31"/>
-    </row>
-    <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="60"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="72"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
+      <c r="T107" s="31"/>
+      <c r="U107" s="31"/>
+      <c r="V107" s="31"/>
+      <c r="W107" s="31"/>
+    </row>
+    <row r="108" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="72"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
       <c r="G108" s="58"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6191,19 +7054,23 @@
       <c r="Q108" s="32"/>
       <c r="R108" s="32"/>
       <c r="S108" s="32"/>
-    </row>
-    <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="59"/>
-      <c r="B109" s="61" t="s">
+      <c r="T108" s="32"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="32"/>
+      <c r="W108" s="32"/>
+    </row>
+    <row r="109" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="71"/>
+      <c r="B109" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="63" t="s">
+      <c r="C109" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="64"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="69"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="61"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6215,7 +7082,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="9">
-        <f t="shared" ref="K109:K112" si="28">SUM(L109:S109)</f>
+        <f t="shared" ref="K109:K112" si="34">SUM(L109:S109)</f>
         <v>3</v>
       </c>
       <c r="L109" s="33"/>
@@ -6229,14 +7096,18 @@
         <v>3</v>
       </c>
       <c r="S109" s="31"/>
-    </row>
-    <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="60"/>
+      <c r="T109" s="31"/>
+      <c r="U109" s="31"/>
+      <c r="V109" s="31"/>
+      <c r="W109" s="31"/>
+    </row>
+    <row r="110" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="72"/>
       <c r="B110" s="62"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="68"/>
-      <c r="F110" s="68"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="60"/>
       <c r="G110" s="62"/>
       <c r="H110" s="56" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6245,7 +7116,7 @@
       <c r="I110" s="56"/>
       <c r="J110" s="56"/>
       <c r="K110" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L110" s="41"/>
@@ -6256,19 +7127,23 @@
       <c r="Q110" s="32"/>
       <c r="R110" s="32"/>
       <c r="S110" s="32"/>
-    </row>
-    <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="59"/>
-      <c r="B111" s="61" t="s">
+      <c r="T110" s="32"/>
+      <c r="U110" s="32"/>
+      <c r="V110" s="32"/>
+      <c r="W110" s="32"/>
+    </row>
+    <row r="111" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="71"/>
+      <c r="B111" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="63" t="s">
+      <c r="C111" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D111" s="64"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="69"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="61"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6280,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="K111" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.5</v>
       </c>
       <c r="L111" s="33"/>
@@ -6294,14 +7169,18 @@
         <v>0.5</v>
       </c>
       <c r="S111" s="31"/>
-    </row>
-    <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="60"/>
+      <c r="T111" s="31"/>
+      <c r="U111" s="31"/>
+      <c r="V111" s="31"/>
+      <c r="W111" s="31"/>
+    </row>
+    <row r="112" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="72"/>
       <c r="B112" s="62"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="68"/>
-      <c r="F112" s="68"/>
+      <c r="C112" s="68"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="60"/>
       <c r="G112" s="62"/>
       <c r="H112" s="56" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6310,7 +7189,7 @@
       <c r="I112" s="56"/>
       <c r="J112" s="56"/>
       <c r="K112" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L112" s="41"/>
@@ -6321,6 +7200,10 @@
       <c r="Q112" s="32"/>
       <c r="R112" s="32"/>
       <c r="S112" s="32"/>
+      <c r="T112" s="32"/>
+      <c r="U112" s="32"/>
+      <c r="V112" s="32"/>
+      <c r="W112" s="32"/>
     </row>
     <row r="113" spans="12:19" x14ac:dyDescent="0.15">
       <c r="L113" s="39"/>
@@ -6337,20 +7220,291 @@
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+  <mergeCells count="321">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6375,340 +7529,187 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L22:S22 M21:S21 L25:S26 M27:S27 M29:S29 L66:S66 Q65:S65 L65:O65 L28:O28 Q28:S28 L30:S36">
-    <cfRule type="expression" dxfId="13" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="55" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="56" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:S58">
-    <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="53" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="54" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:S20">
-    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="51" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="52" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61:S64 L67:S76">
-    <cfRule type="expression" dxfId="7" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="50" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L61), L61&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79:S84">
-    <cfRule type="expression" dxfId="5" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="47" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="48" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L79), L79&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:S38 L41:S42">
-    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="37" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="38" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:S40">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="35" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L39), L39&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="36" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L39), L39&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T87:U98 T101:U112 T9:U18 T21:U22 T65:U66 T25:U36">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T9), T9&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T9), T9&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T45:U58">
+    <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T45), T45&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T45), T45&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19:U20">
+    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T19), T19&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T19), T19&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T61:U64 T67:U76">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T61), T61&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T61), T61&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T79:U84">
+    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T79), T79&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T79), T79&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T37:U38 T41:U42">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T37), T37&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T37), T37&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T39:U40">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(T39), T39&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(T39), T39&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V87:W98 V101:W112 V9:W18 V21:W22 V65:W66 V25:W36">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(V9), V9&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(V9), V9&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V45:W58">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(V45), V45&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(V45), V45&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V19:W20">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(V19), V19&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(V19), V19&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V61:W64 V67:W76">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(V61), V61&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(V61), V61&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V79:W84">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(V79), V79&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(V79), V79&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V37:W38 V41:W42">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(V37), V37&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(V37), V37&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V39:W40">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(V39), V39&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(V39), V39&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -6740,6 +7741,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6923,15 +7933,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6942,6 +7943,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD03FED8-A00F-4FCB-A8E4-19FD98D3DE82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6957,12 +7966,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/15_WBSガントチャート(4日目記入済み).xlsx
+++ b/15_WBSガントチャート(4日目記入済み).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116CF5F-3215-4EAA-8373-F3FFEDAF496B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B57F3-0E7D-4D06-99B7-32D3E647CAC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1581,12 +1581,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1596,7 +1635,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1605,31 +1650,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1656,16 +1680,94 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1682,108 +1784,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2561,10 +2561,10 @@
   <dimension ref="A1:W113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="102" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="P68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
+      <selection pane="bottomRight" activeCell="U81" sqref="U81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2583,144 +2583,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="98" t="s">
+      <c r="A1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="K1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="82">
+      <c r="L1" s="57">
         <v>43984</v>
       </c>
-      <c r="M1" s="83"/>
-      <c r="N1" s="82">
+      <c r="M1" s="58"/>
+      <c r="N1" s="57">
         <v>43985</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="82">
+      <c r="O1" s="58"/>
+      <c r="P1" s="57">
         <v>43986</v>
       </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="82">
+      <c r="Q1" s="58"/>
+      <c r="R1" s="57">
         <v>43987</v>
       </c>
-      <c r="S1" s="83"/>
-      <c r="T1" s="82">
+      <c r="S1" s="58"/>
+      <c r="T1" s="57">
         <v>43990</v>
       </c>
-      <c r="U1" s="83"/>
-      <c r="V1" s="82">
+      <c r="U1" s="58"/>
+      <c r="V1" s="57">
         <v>43991</v>
       </c>
-      <c r="W1" s="83"/>
+      <c r="W1" s="58"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="86" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="84" t="s">
+      <c r="M2" s="60"/>
+      <c r="N2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="84"/>
-      <c r="P2" s="87" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="84" t="s">
+      <c r="Q2" s="60"/>
+      <c r="R2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="85"/>
-      <c r="T2" s="84" t="s">
+      <c r="S2" s="60"/>
+      <c r="T2" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="85"/>
-      <c r="V2" s="84" t="s">
+      <c r="U2" s="60"/>
+      <c r="V2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="85"/>
+      <c r="W2" s="60"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="102"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="90" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="89"/>
-      <c r="N3" s="88" t="s">
+      <c r="M3" s="123"/>
+      <c r="N3" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88" t="s">
+      <c r="O3" s="123"/>
+      <c r="P3" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="91" t="s">
+      <c r="Q3" s="123"/>
+      <c r="R3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91" t="s">
+      <c r="S3" s="61"/>
+      <c r="T3" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91" t="s">
+      <c r="U3" s="61"/>
+      <c r="V3" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="91"/>
+      <c r="W3" s="61"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="103"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="94"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="101"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2759,15 +2759,15 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="122"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2827,13 +2827,13 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="123"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="96"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="S6" s="47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="T6" s="47">
         <f t="shared" ref="T6" si="4">SUM(U8,U24,U44,U60,U78,U86)</f>
@@ -2893,15 +2893,15 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="115"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="117"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2961,13 +2961,13 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="116"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="118"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -3027,17 +3027,17 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="71">
+      <c r="A9" s="64">
         <v>1</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="57"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -3059,13 +3059,13 @@
       <c r="W9" s="31"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="58"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -3087,17 +3087,17 @@
       <c r="W10" s="32"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="71"/>
-      <c r="B11" s="73" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="61"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="74"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -3128,13 +3128,13 @@
       <c r="W11" s="31"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="62"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="56" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
@@ -3167,17 +3167,17 @@
       <c r="W12" s="32"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="71"/>
-      <c r="B13" s="73" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="61"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="74"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -3208,13 +3208,13 @@
       <c r="W13" s="31"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="72"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="62"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="67"/>
       <c r="H14" s="56" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
@@ -3247,17 +3247,17 @@
       <c r="W14" s="32"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="71">
+      <c r="A15" s="64">
         <v>2</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="57"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3279,13 +3279,13 @@
       <c r="W15" s="31"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="58"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3307,17 +3307,17 @@
       <c r="W16" s="32"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="71"/>
-      <c r="B17" s="73" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="61"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="74"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -3350,13 +3350,13 @@
       <c r="W17" s="31"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="62"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="56" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
@@ -3389,17 +3389,17 @@
       <c r="W18" s="32"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="71"/>
-      <c r="B19" s="73" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="61"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="74"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3433,13 +3433,13 @@
       <c r="W19" s="31"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="62"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="56" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
@@ -3472,17 +3472,17 @@
       <c r="W20" s="32"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="71"/>
-      <c r="B21" s="73" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="61"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="74"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3513,13 +3513,13 @@
       <c r="W21" s="31"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="72"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="62"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="56" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
@@ -3550,15 +3550,15 @@
       <c r="W22" s="32"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="118"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3618,13 +3618,13 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="119"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3684,17 +3684,17 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="71">
+      <c r="A25" s="64">
         <v>1</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="57"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="62"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3716,13 +3716,13 @@
       <c r="W25" s="31"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="58"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3744,17 +3744,17 @@
       <c r="W26" s="32"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="71"/>
-      <c r="B27" s="73" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="61"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="74"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3785,13 +3785,13 @@
       <c r="W27" s="31"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="72"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="62"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="56" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
@@ -3822,17 +3822,17 @@
       <c r="W28" s="32"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="71"/>
-      <c r="B29" s="73" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="61"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="74"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3863,13 +3863,13 @@
       <c r="W29" s="31"/>
     </row>
     <row r="30" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="72"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="62"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="67"/>
       <c r="H30" s="56" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
@@ -3906,17 +3906,17 @@
       <c r="W30" s="32"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="71"/>
-      <c r="B31" s="73" t="s">
+      <c r="A31" s="64"/>
+      <c r="B31" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="61"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="74"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3948,13 +3948,13 @@
       <c r="W31" s="31"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="72"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="62"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="56" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
@@ -3986,17 +3986,17 @@
       <c r="W32" s="32"/>
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="71"/>
-      <c r="B33" s="73" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="61"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="74"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -4028,13 +4028,13 @@
       <c r="W33" s="31"/>
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="72"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="62"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="67"/>
       <c r="H34" s="56" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
@@ -4066,17 +4066,17 @@
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="71">
+      <c r="A35" s="64">
         <v>2</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="57"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="62"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -4098,13 +4098,13 @@
       <c r="W35" s="31"/>
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="72"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="58"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -4126,17 +4126,17 @@
       <c r="W36" s="32"/>
     </row>
     <row r="37" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="71"/>
-      <c r="B37" s="73" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="61"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="74"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -4168,13 +4168,13 @@
       <c r="W37" s="31"/>
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="72"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="62"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="67"/>
       <c r="H38" s="56" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -4212,17 +4212,17 @@
       <c r="W38" s="32"/>
     </row>
     <row r="39" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="71"/>
-      <c r="B39" s="73" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="61"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="74"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -4253,13 +4253,13 @@
       <c r="W39" s="31"/>
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="72"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="62"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="67"/>
       <c r="H40" s="56" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
@@ -4297,17 +4297,17 @@
       <c r="W40" s="32"/>
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="71"/>
-      <c r="B41" s="73" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="61"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="74"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -4338,13 +4338,13 @@
       <c r="W41" s="31"/>
     </row>
     <row r="42" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="72"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="62"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="67"/>
       <c r="H42" s="56" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
@@ -4382,15 +4382,15 @@
       <c r="W42" s="32"/>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="118"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="80"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -4450,13 +4450,13 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="77"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="119"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="81"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4516,17 +4516,17 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="71">
+      <c r="A45" s="64">
         <v>1</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="57"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="62"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4548,13 +4548,13 @@
       <c r="W45" s="31"/>
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="72"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="58"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="63"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4576,17 +4576,17 @@
       <c r="W46" s="32"/>
     </row>
     <row r="47" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="71"/>
-      <c r="B47" s="73" t="s">
+      <c r="A47" s="64"/>
+      <c r="B47" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="61"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="74"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -4618,13 +4618,13 @@
       <c r="W47" s="31"/>
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="72"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="62"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="67"/>
       <c r="H48" s="56" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
@@ -4662,17 +4662,17 @@
       <c r="W48" s="32"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="71"/>
-      <c r="B49" s="73" t="s">
+      <c r="A49" s="64"/>
+      <c r="B49" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="61"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="74"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4704,13 +4704,13 @@
       <c r="W49" s="31"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="72"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="62"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="67"/>
       <c r="H50" s="56" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
@@ -4742,17 +4742,17 @@
       <c r="W50" s="32"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="71">
+      <c r="A51" s="64">
         <v>2</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="57"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="62"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4774,13 +4774,13 @@
       <c r="W51" s="31"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="72"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="58"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="63"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4802,17 +4802,17 @@
       <c r="W52" s="32"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="71"/>
-      <c r="B53" s="73" t="s">
+      <c r="A53" s="64"/>
+      <c r="B53" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="61"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="74"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4844,13 +4844,13 @@
       <c r="W53" s="31"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="72"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="62"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="67"/>
       <c r="H54" s="56" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4882,17 +4882,17 @@
       <c r="W54" s="32"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="71"/>
-      <c r="B55" s="73" t="s">
+      <c r="A55" s="64"/>
+      <c r="B55" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="61"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="74"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4924,13 +4924,13 @@
       <c r="W55" s="31"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="72"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="62"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="67"/>
       <c r="H56" s="56" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4962,17 +4962,17 @@
       <c r="W56" s="32"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="71"/>
-      <c r="B57" s="73" t="s">
+      <c r="A57" s="64"/>
+      <c r="B57" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="65" t="s">
+      <c r="C57" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="61"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="74"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -5004,13 +5004,13 @@
       <c r="W57" s="31"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="72"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="62"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="67"/>
       <c r="H58" s="56" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -5042,15 +5042,15 @@
       <c r="W58" s="44"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="74" t="s">
+      <c r="A59" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="75"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="118"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="80"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -5110,13 +5110,13 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="77"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="119"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="81"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -5176,17 +5176,17 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="71">
+      <c r="A61" s="64">
         <v>1</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="66"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="57"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="62"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -5208,13 +5208,13 @@
       <c r="W61" s="31"/>
     </row>
     <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="72"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="58"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="63"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -5236,17 +5236,17 @@
       <c r="W62" s="32"/>
     </row>
     <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="71"/>
-      <c r="B63" s="73" t="s">
+      <c r="A63" s="64"/>
+      <c r="B63" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="67"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="61"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="74"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5278,13 +5278,13 @@
       <c r="W63" s="31"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="72"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="62"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="67"/>
       <c r="H64" s="56" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5316,17 +5316,17 @@
       <c r="W64" s="32"/>
     </row>
     <row r="65" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="71"/>
-      <c r="B65" s="73" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="65" t="s">
+      <c r="C65" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="67"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="61"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="74"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -5357,13 +5357,13 @@
       <c r="W65" s="31"/>
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="72"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="62"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="67"/>
       <c r="H66" s="56" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -5401,17 +5401,17 @@
       <c r="W66" s="32"/>
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="71"/>
-      <c r="B67" s="73" t="s">
+      <c r="A67" s="64"/>
+      <c r="B67" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="65" t="s">
+      <c r="C67" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="67"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="61"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="74"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -5443,13 +5443,13 @@
       <c r="W67" s="31"/>
     </row>
     <row r="68" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="72"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="62"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="67"/>
       <c r="H68" s="56" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -5480,17 +5480,17 @@
       <c r="W68" s="32"/>
     </row>
     <row r="69" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="71">
+      <c r="A69" s="64">
         <v>2</v>
       </c>
-      <c r="B69" s="65" t="s">
+      <c r="B69" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="66"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="57"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="62"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -5512,13 +5512,13 @@
       <c r="W69" s="31"/>
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="72"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="58"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -5540,17 +5540,17 @@
       <c r="W70" s="32"/>
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="71"/>
-      <c r="B71" s="73" t="s">
+      <c r="A71" s="64"/>
+      <c r="B71" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="65" t="s">
+      <c r="C71" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="67"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="61"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="74"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5582,13 +5582,13 @@
       <c r="W71" s="31"/>
     </row>
     <row r="72" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="72"/>
-      <c r="B72" s="62"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="62"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="67"/>
       <c r="H72" s="56" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5616,17 +5616,17 @@
       <c r="W72" s="32"/>
     </row>
     <row r="73" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="71"/>
-      <c r="B73" s="73" t="s">
+      <c r="A73" s="64"/>
+      <c r="B73" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="65" t="s">
+      <c r="C73" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D73" s="67"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="61"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="74"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -5658,13 +5658,13 @@
       <c r="W73" s="31"/>
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="72"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="62"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="67"/>
       <c r="H74" s="56" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -5692,17 +5692,17 @@
       <c r="W74" s="32"/>
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="71"/>
-      <c r="B75" s="73" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C75" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="67"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="61"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="74"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -5734,13 +5734,13 @@
       <c r="W75" s="31"/>
     </row>
     <row r="76" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="72"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="62"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="67"/>
       <c r="H76" s="56" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -5768,15 +5768,15 @@
       <c r="W76" s="44"/>
     </row>
     <row r="77" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="74" t="s">
+      <c r="A77" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="75"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="118"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="80"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -5836,13 +5836,13 @@
       </c>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="77"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="119"/>
+      <c r="A78" s="85"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="87"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="81"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="T78" s="36">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="U78" s="36">
         <f t="shared" si="26"/>
@@ -5902,17 +5902,17 @@
       </c>
     </row>
     <row r="79" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="71">
+      <c r="A79" s="64">
         <v>1</v>
       </c>
-      <c r="B79" s="65" t="s">
+      <c r="B79" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="66"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="57"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="78"/>
+      <c r="F79" s="78"/>
+      <c r="G79" s="62"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5934,13 +5934,13 @@
       <c r="W79" s="31"/>
     </row>
     <row r="80" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="72"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="58"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="63"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5962,17 +5962,17 @@
       <c r="W80" s="32"/>
     </row>
     <row r="81" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="71"/>
-      <c r="B81" s="73" t="s">
+      <c r="A81" s="64"/>
+      <c r="B81" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="65" t="s">
+      <c r="C81" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="D81" s="67"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="61"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="74"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -6007,13 +6007,13 @@
       <c r="W81" s="31"/>
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="72"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="60"/>
-      <c r="G82" s="62"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="73"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="67"/>
       <c r="H82" s="56" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -6032,23 +6032,26 @@
       <c r="Q82" s="32"/>
       <c r="R82" s="32"/>
       <c r="S82" s="32"/>
-      <c r="T82" s="32"/>
+      <c r="T82" s="32">
+        <f>6*2.75</f>
+        <v>16.5</v>
+      </c>
       <c r="U82" s="32"/>
       <c r="V82" s="32"/>
       <c r="W82" s="32"/>
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="71"/>
-      <c r="B83" s="73" t="s">
+      <c r="A83" s="64"/>
+      <c r="B83" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="65" t="s">
+      <c r="C83" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D83" s="67"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="61"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="74"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -6083,13 +6086,13 @@
       <c r="W83" s="31"/>
     </row>
     <row r="84" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="72"/>
-      <c r="B84" s="62"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="62"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="67"/>
       <c r="H84" s="56" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -6114,15 +6117,15 @@
       <c r="W84" s="32"/>
     </row>
     <row r="85" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="74" t="s">
+      <c r="A85" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B85" s="75"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="80"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="118"/>
+      <c r="B85" s="83"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="88"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="80"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
@@ -6182,13 +6185,13 @@
       </c>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="77"/>
-      <c r="B86" s="78"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="79"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="119"/>
+      <c r="A86" s="85"/>
+      <c r="B86" s="86"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="87"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="89"/>
+      <c r="G86" s="81"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -6248,17 +6251,17 @@
       </c>
     </row>
     <row r="87" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="71">
+      <c r="A87" s="64">
         <v>1</v>
       </c>
-      <c r="B87" s="65" t="s">
+      <c r="B87" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="66"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="57"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="62"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -6280,13 +6283,13 @@
       <c r="W87" s="31"/>
     </row>
     <row r="88" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="72"/>
-      <c r="B88" s="68"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="58"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="63"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -6308,17 +6311,17 @@
       <c r="W88" s="32"/>
     </row>
     <row r="89" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="71"/>
-      <c r="B89" s="73" t="s">
+      <c r="A89" s="64"/>
+      <c r="B89" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="65" t="s">
+      <c r="C89" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="67"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="61"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="74"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6350,13 +6353,13 @@
       <c r="W89" s="31"/>
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="72"/>
-      <c r="B90" s="62"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="62"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="70"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="67"/>
       <c r="H90" s="56" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6381,17 +6384,17 @@
       <c r="W90" s="32"/>
     </row>
     <row r="91" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="71"/>
-      <c r="B91" s="73" t="s">
+      <c r="A91" s="64"/>
+      <c r="B91" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="124" t="s">
+      <c r="C91" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D91" s="67"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="61"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="74"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -6423,13 +6426,13 @@
       <c r="W91" s="31"/>
     </row>
     <row r="92" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="72"/>
-      <c r="B92" s="62"/>
-      <c r="C92" s="68"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="62"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="67"/>
       <c r="H92" s="56" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -6454,17 +6457,17 @@
       <c r="W92" s="32"/>
     </row>
     <row r="93" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="71">
+      <c r="A93" s="64">
         <v>2</v>
       </c>
-      <c r="B93" s="65" t="s">
+      <c r="B93" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="66"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="63"/>
-      <c r="G93" s="57"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="78"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="62"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -6486,13 +6489,13 @@
       <c r="W93" s="31"/>
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="72"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="58"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="63"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -6514,17 +6517,17 @@
       <c r="W94" s="32"/>
     </row>
     <row r="95" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="71"/>
-      <c r="B95" s="73" t="s">
+      <c r="A95" s="64"/>
+      <c r="B95" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="65" t="s">
+      <c r="C95" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="67"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="61"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="74"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6556,13 +6559,13 @@
       <c r="W95" s="31"/>
     </row>
     <row r="96" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="72"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="62"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="67"/>
+      <c r="C96" s="70"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="73"/>
+      <c r="F96" s="73"/>
+      <c r="G96" s="67"/>
       <c r="H96" s="56" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6587,17 +6590,17 @@
       <c r="W96" s="32"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="71"/>
-      <c r="B97" s="73" t="s">
+      <c r="A97" s="64"/>
+      <c r="B97" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="65" t="s">
+      <c r="C97" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="67"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="61"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="74"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -6629,13 +6632,13 @@
       <c r="W97" s="31"/>
     </row>
     <row r="98" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="72"/>
-      <c r="B98" s="62"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="62"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="67"/>
       <c r="H98" s="56" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -6660,15 +6663,15 @@
       <c r="W98" s="44"/>
     </row>
     <row r="99" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="74" t="s">
+      <c r="A99" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B99" s="75"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="76"/>
-      <c r="E99" s="80"/>
-      <c r="F99" s="80"/>
-      <c r="G99" s="118"/>
+      <c r="B99" s="83"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="84"/>
+      <c r="E99" s="88"/>
+      <c r="F99" s="88"/>
+      <c r="G99" s="80"/>
       <c r="H99" s="20" t="s">
         <v>19</v>
       </c>
@@ -6728,13 +6731,13 @@
       </c>
     </row>
     <row r="100" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="77"/>
-      <c r="B100" s="78"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="79"/>
-      <c r="E100" s="81"/>
-      <c r="F100" s="81"/>
-      <c r="G100" s="119"/>
+      <c r="A100" s="85"/>
+      <c r="B100" s="86"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="87"/>
+      <c r="E100" s="89"/>
+      <c r="F100" s="89"/>
+      <c r="G100" s="81"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -6794,17 +6797,17 @@
       </c>
     </row>
     <row r="101" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="71">
+      <c r="A101" s="64">
         <v>1</v>
       </c>
-      <c r="B101" s="65" t="s">
+      <c r="B101" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="66"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="63"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="57"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="69"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="62"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -6826,13 +6829,13 @@
       <c r="W101" s="31"/>
     </row>
     <row r="102" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="72"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="58"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="63"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -6854,17 +6857,17 @@
       <c r="W102" s="32"/>
     </row>
     <row r="103" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="71"/>
-      <c r="B103" s="73" t="s">
+      <c r="A103" s="64"/>
+      <c r="B103" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="65" t="s">
+      <c r="C103" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="D103" s="67"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="61"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="74"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6896,13 +6899,13 @@
       <c r="W103" s="31"/>
     </row>
     <row r="104" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="72"/>
-      <c r="B104" s="62"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="62"/>
+      <c r="A104" s="65"/>
+      <c r="B104" s="67"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="73"/>
+      <c r="G104" s="67"/>
       <c r="H104" s="56" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6927,17 +6930,17 @@
       <c r="W104" s="32"/>
     </row>
     <row r="105" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="71"/>
-      <c r="B105" s="73" t="s">
+      <c r="A105" s="64"/>
+      <c r="B105" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="65" t="s">
+      <c r="C105" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="D105" s="67"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="61"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="74"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -6969,13 +6972,13 @@
       <c r="W105" s="31"/>
     </row>
     <row r="106" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="72"/>
-      <c r="B106" s="62"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="60"/>
-      <c r="G106" s="62"/>
+      <c r="A106" s="65"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="73"/>
+      <c r="F106" s="73"/>
+      <c r="G106" s="67"/>
       <c r="H106" s="56" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -7000,17 +7003,17 @@
       <c r="W106" s="32"/>
     </row>
     <row r="107" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="71">
+      <c r="A107" s="64">
         <v>2</v>
       </c>
-      <c r="B107" s="65" t="s">
+      <c r="B107" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="66"/>
-      <c r="D107" s="67"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="63"/>
-      <c r="G107" s="57"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="69"/>
+      <c r="E107" s="78"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="62"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -7032,13 +7035,13 @@
       <c r="W107" s="31"/>
     </row>
     <row r="108" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="72"/>
-      <c r="B108" s="68"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="58"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="63"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -7060,17 +7063,17 @@
       <c r="W108" s="32"/>
     </row>
     <row r="109" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="71"/>
-      <c r="B109" s="73" t="s">
+      <c r="A109" s="64"/>
+      <c r="B109" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="65" t="s">
+      <c r="C109" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="67"/>
-      <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="61"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="72"/>
+      <c r="G109" s="74"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7102,13 +7105,13 @@
       <c r="W109" s="31"/>
     </row>
     <row r="110" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="72"/>
-      <c r="B110" s="62"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="60"/>
-      <c r="F110" s="60"/>
-      <c r="G110" s="62"/>
+      <c r="A110" s="65"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="73"/>
+      <c r="F110" s="73"/>
+      <c r="G110" s="67"/>
       <c r="H110" s="56" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7133,17 +7136,17 @@
       <c r="W110" s="32"/>
     </row>
     <row r="111" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="71"/>
-      <c r="B111" s="73" t="s">
+      <c r="A111" s="64"/>
+      <c r="B111" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="65" t="s">
+      <c r="C111" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D111" s="67"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="61"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="74"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -7175,13 +7178,13 @@
       <c r="W111" s="31"/>
     </row>
     <row r="112" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="72"/>
-      <c r="B112" s="62"/>
-      <c r="C112" s="68"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="60"/>
-      <c r="F112" s="60"/>
-      <c r="G112" s="62"/>
+      <c r="A112" s="65"/>
+      <c r="B112" s="67"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="71"/>
+      <c r="E112" s="73"/>
+      <c r="F112" s="73"/>
+      <c r="G112" s="67"/>
       <c r="H112" s="56" t="str">
         <f>IF(E111="","","実績")</f>
         <v/>
@@ -7221,6 +7224,303 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="321">
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="T3:U3"/>
@@ -7245,303 +7545,6 @@
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:D90"/>
     <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L22:S22 M21:S21 L25:S26 M27:S27 M29:S29 L66:S66 Q65:S65 L65:O65 L28:O28 Q28:S28 L30:S36">
@@ -7741,15 +7744,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -7933,6 +7927,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -7943,14 +7946,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD03FED8-A00F-4FCB-A8E4-19FD98D3DE82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7966,4 +7961,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/15_WBSガントチャート(4日目記入済み).xlsx
+++ b/15_WBSガントチャート(4日目記入済み).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B57F3-0E7D-4D06-99B7-32D3E647CAC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B660AC-AB67-4E47-83E2-DF9813ED9DCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1581,6 +1581,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1593,197 +1668,122 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2561,10 +2561,10 @@
   <dimension ref="A1:W113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="102" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="P68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="P71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U81" sqref="U81"/>
+      <selection pane="bottomRight" activeCell="U76" sqref="U76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2583,144 +2583,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="90" t="s">
+      <c r="A1" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="99" t="s">
+      <c r="K1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="57">
+      <c r="L1" s="82">
         <v>43984</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="57">
+      <c r="M1" s="83"/>
+      <c r="N1" s="82">
         <v>43985</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="57">
+      <c r="O1" s="83"/>
+      <c r="P1" s="82">
         <v>43986</v>
       </c>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="57">
+      <c r="Q1" s="83"/>
+      <c r="R1" s="82">
         <v>43987</v>
       </c>
-      <c r="S1" s="58"/>
-      <c r="T1" s="57">
+      <c r="S1" s="83"/>
+      <c r="T1" s="82">
         <v>43990</v>
       </c>
-      <c r="U1" s="58"/>
-      <c r="V1" s="57">
+      <c r="U1" s="83"/>
+      <c r="V1" s="82">
         <v>43991</v>
       </c>
-      <c r="W1" s="58"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="120" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="60"/>
-      <c r="N2" s="59" t="s">
+      <c r="M2" s="85"/>
+      <c r="N2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="121" t="s">
+      <c r="O2" s="84"/>
+      <c r="P2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="59" t="s">
+      <c r="Q2" s="85"/>
+      <c r="R2" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="59" t="s">
+      <c r="S2" s="85"/>
+      <c r="T2" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="59" t="s">
+      <c r="U2" s="85"/>
+      <c r="V2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="60"/>
+      <c r="W2" s="85"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="106"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="124" t="s">
+      <c r="A3" s="102"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="123"/>
-      <c r="N3" s="122" t="s">
+      <c r="M3" s="89"/>
+      <c r="N3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="122" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="61" t="s">
+      <c r="Q3" s="89"/>
+      <c r="R3" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61" t="s">
+      <c r="S3" s="91"/>
+      <c r="T3" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61" t="s">
+      <c r="U3" s="91"/>
+      <c r="V3" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="61"/>
+      <c r="W3" s="91"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="107"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="101"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="94"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2759,15 +2759,15 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2827,13 +2827,13 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="96"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="T6" s="47">
         <f t="shared" ref="T6" si="4">SUM(U8,U24,U44,U60,U78,U86)</f>
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="U6" s="47">
         <f t="shared" ref="U6" si="5">SUM(V8,V24,V44,V60,V78,V86)</f>
@@ -2893,15 +2893,15 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="117"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2961,13 +2961,13 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="85"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="118"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="116"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -3027,17 +3027,17 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="64">
+      <c r="A9" s="71">
         <v>1</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="62"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -3059,13 +3059,13 @@
       <c r="W9" s="31"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="63"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -3087,17 +3087,17 @@
       <c r="W10" s="32"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="74"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -3128,13 +3128,13 @@
       <c r="W11" s="31"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="67"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="56" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
@@ -3167,17 +3167,17 @@
       <c r="W12" s="32"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="74"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -3208,13 +3208,13 @@
       <c r="W13" s="31"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="67"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="56" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
@@ -3247,17 +3247,17 @@
       <c r="W14" s="32"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="64">
+      <c r="A15" s="71">
         <v>2</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="62"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="57"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3279,13 +3279,13 @@
       <c r="W15" s="31"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="63"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3307,17 +3307,17 @@
       <c r="W16" s="32"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="74"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -3350,13 +3350,13 @@
       <c r="W17" s="31"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="67"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="56" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
@@ -3389,17 +3389,17 @@
       <c r="W18" s="32"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="71"/>
+      <c r="B19" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="74"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3433,13 +3433,13 @@
       <c r="W19" s="31"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="67"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="56" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
@@ -3472,17 +3472,17 @@
       <c r="W20" s="32"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="66" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="74"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3513,13 +3513,13 @@
       <c r="W21" s="31"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="67"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="56" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
@@ -3550,15 +3550,15 @@
       <c r="W22" s="32"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="80"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3618,13 +3618,13 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="85"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="81"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="119"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3684,17 +3684,17 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64">
+      <c r="A25" s="71">
         <v>1</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="62"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="57"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3716,13 +3716,13 @@
       <c r="W25" s="31"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="65"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="63"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3744,17 +3744,17 @@
       <c r="W26" s="32"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="71"/>
+      <c r="B27" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="74"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3785,13 +3785,13 @@
       <c r="W27" s="31"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="65"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="67"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="62"/>
       <c r="H28" s="56" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
@@ -3822,17 +3822,17 @@
       <c r="W28" s="32"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
-      <c r="B29" s="66" t="s">
+      <c r="A29" s="71"/>
+      <c r="B29" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="74"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="61"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3863,13 +3863,13 @@
       <c r="W29" s="31"/>
     </row>
     <row r="30" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="65"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="67"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="62"/>
       <c r="H30" s="56" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
@@ -3906,17 +3906,17 @@
       <c r="W30" s="32"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="64"/>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="71"/>
+      <c r="B31" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="74"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="61"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3948,13 +3948,13 @@
       <c r="W31" s="31"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="67"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="62"/>
       <c r="H32" s="56" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
@@ -3986,17 +3986,17 @@
       <c r="W32" s="32"/>
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="64"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="71"/>
+      <c r="B33" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="74"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="61"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -4028,13 +4028,13 @@
       <c r="W33" s="31"/>
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="67"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="62"/>
       <c r="H34" s="56" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
@@ -4066,17 +4066,17 @@
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="64">
+      <c r="A35" s="71">
         <v>2</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="62"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="57"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -4098,13 +4098,13 @@
       <c r="W35" s="31"/>
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="65"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="63"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -4126,17 +4126,17 @@
       <c r="W36" s="32"/>
     </row>
     <row r="37" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="64"/>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="71"/>
+      <c r="B37" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="74"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -4168,13 +4168,13 @@
       <c r="W37" s="31"/>
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="67"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="62"/>
       <c r="H38" s="56" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -4212,17 +4212,17 @@
       <c r="W38" s="32"/>
     </row>
     <row r="39" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="64"/>
-      <c r="B39" s="66" t="s">
+      <c r="A39" s="71"/>
+      <c r="B39" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="74"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="61"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -4253,13 +4253,13 @@
       <c r="W39" s="31"/>
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="65"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="67"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="62"/>
       <c r="H40" s="56" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
@@ -4297,17 +4297,17 @@
       <c r="W40" s="32"/>
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="64"/>
-      <c r="B41" s="66" t="s">
+      <c r="A41" s="71"/>
+      <c r="B41" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="74"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="61"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -4338,13 +4338,13 @@
       <c r="W41" s="31"/>
     </row>
     <row r="42" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="67"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="62"/>
       <c r="H42" s="56" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
@@ -4382,15 +4382,15 @@
       <c r="W42" s="32"/>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="80"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="118"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -4450,13 +4450,13 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="85"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="81"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="119"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -4516,17 +4516,17 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="64">
+      <c r="A45" s="71">
         <v>1</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="62"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="57"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4548,13 +4548,13 @@
       <c r="W45" s="31"/>
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="65"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="63"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="58"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4576,17 +4576,17 @@
       <c r="W46" s="32"/>
     </row>
     <row r="47" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="64"/>
-      <c r="B47" s="66" t="s">
+      <c r="A47" s="71"/>
+      <c r="B47" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="74"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="61"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -4618,13 +4618,13 @@
       <c r="W47" s="31"/>
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="65"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="67"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="62"/>
       <c r="H48" s="56" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
@@ -4662,17 +4662,17 @@
       <c r="W48" s="32"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="64"/>
-      <c r="B49" s="66" t="s">
+      <c r="A49" s="71"/>
+      <c r="B49" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="74"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="61"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4704,13 +4704,13 @@
       <c r="W49" s="31"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="65"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="67"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="62"/>
       <c r="H50" s="56" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
@@ -4742,17 +4742,17 @@
       <c r="W50" s="32"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="64">
+      <c r="A51" s="71">
         <v>2</v>
       </c>
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="62"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="57"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4774,13 +4774,13 @@
       <c r="W51" s="31"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="65"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="63"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="58"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4802,17 +4802,17 @@
       <c r="W52" s="32"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="64"/>
-      <c r="B53" s="66" t="s">
+      <c r="A53" s="71"/>
+      <c r="B53" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="68" t="s">
+      <c r="C53" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="69"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="74"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="61"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4844,13 +4844,13 @@
       <c r="W53" s="31"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="65"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="67"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="62"/>
       <c r="H54" s="56" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4882,17 +4882,17 @@
       <c r="W54" s="32"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="64"/>
-      <c r="B55" s="66" t="s">
+      <c r="A55" s="71"/>
+      <c r="B55" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="68" t="s">
+      <c r="C55" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="69"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="74"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="61"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4924,13 +4924,13 @@
       <c r="W55" s="31"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="65"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="67"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="62"/>
       <c r="H56" s="56" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4962,17 +4962,17 @@
       <c r="W56" s="32"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="64"/>
-      <c r="B57" s="66" t="s">
+      <c r="A57" s="71"/>
+      <c r="B57" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="68" t="s">
+      <c r="C57" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="69"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="74"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="61"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -5004,13 +5004,13 @@
       <c r="W57" s="31"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="65"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="67"/>
+      <c r="A58" s="72"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="62"/>
       <c r="H58" s="56" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -5042,15 +5042,15 @@
       <c r="W58" s="44"/>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="80"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="118"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -5110,13 +5110,13 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="85"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="81"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="119"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -5176,17 +5176,17 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="64">
+      <c r="A61" s="71">
         <v>1</v>
       </c>
-      <c r="B61" s="68" t="s">
+      <c r="B61" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="76"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="62"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="57"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -5208,13 +5208,13 @@
       <c r="W61" s="31"/>
     </row>
     <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="65"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="63"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="58"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -5236,17 +5236,17 @@
       <c r="W62" s="32"/>
     </row>
     <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="64"/>
-      <c r="B63" s="66" t="s">
+      <c r="A63" s="71"/>
+      <c r="B63" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="68" t="s">
+      <c r="C63" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="69"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="74"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="61"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5278,13 +5278,13 @@
       <c r="W63" s="31"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="65"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="67"/>
+      <c r="A64" s="72"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="62"/>
       <c r="H64" s="56" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5316,17 +5316,17 @@
       <c r="W64" s="32"/>
     </row>
     <row r="65" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="64"/>
-      <c r="B65" s="66" t="s">
+      <c r="A65" s="71"/>
+      <c r="B65" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="68" t="s">
+      <c r="C65" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="69"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="74"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="61"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -5357,13 +5357,13 @@
       <c r="W65" s="31"/>
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="65"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="67"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="62"/>
       <c r="H66" s="56" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -5401,17 +5401,17 @@
       <c r="W66" s="32"/>
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="64"/>
-      <c r="B67" s="66" t="s">
+      <c r="A67" s="71"/>
+      <c r="B67" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="68" t="s">
+      <c r="C67" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="69"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="74"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="61"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -5443,13 +5443,13 @@
       <c r="W67" s="31"/>
     </row>
     <row r="68" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="65"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="67"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="62"/>
       <c r="H68" s="56" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -5480,17 +5480,17 @@
       <c r="W68" s="32"/>
     </row>
     <row r="69" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="64">
+      <c r="A69" s="71">
         <v>2</v>
       </c>
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="76"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="62"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="57"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -5512,13 +5512,13 @@
       <c r="W69" s="31"/>
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="65"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="63"/>
+      <c r="A70" s="72"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="58"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -5540,17 +5540,17 @@
       <c r="W70" s="32"/>
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="64"/>
-      <c r="B71" s="66" t="s">
+      <c r="A71" s="71"/>
+      <c r="B71" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="68" t="s">
+      <c r="C71" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="69"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="74"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="61"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5582,13 +5582,13 @@
       <c r="W71" s="31"/>
     </row>
     <row r="72" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="65"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="67"/>
+      <c r="A72" s="72"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="62"/>
       <c r="H72" s="56" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5616,17 +5616,17 @@
       <c r="W72" s="32"/>
     </row>
     <row r="73" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="64"/>
-      <c r="B73" s="66" t="s">
+      <c r="A73" s="71"/>
+      <c r="B73" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="68" t="s">
+      <c r="C73" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D73" s="69"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="74"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="61"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -5658,13 +5658,13 @@
       <c r="W73" s="31"/>
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="65"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="67"/>
+      <c r="A74" s="72"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="62"/>
       <c r="H74" s="56" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -5692,17 +5692,17 @@
       <c r="W74" s="32"/>
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="64"/>
-      <c r="B75" s="66" t="s">
+      <c r="A75" s="71"/>
+      <c r="B75" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="68" t="s">
+      <c r="C75" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="69"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="74"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="61"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -5734,13 +5734,13 @@
       <c r="W75" s="31"/>
     </row>
     <row r="76" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="65"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="67"/>
+      <c r="A76" s="72"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="62"/>
       <c r="H76" s="56" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -5768,15 +5768,15 @@
       <c r="W76" s="44"/>
     </row>
     <row r="77" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="82" t="s">
+      <c r="A77" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="83"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="80"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="80"/>
+      <c r="G77" s="118"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -5836,13 +5836,13 @@
       </c>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="85"/>
-      <c r="B78" s="86"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="81"/>
+      <c r="A78" s="77"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="119"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="U78" s="36">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="V78" s="36">
         <f t="shared" si="26"/>
@@ -5902,17 +5902,17 @@
       </c>
     </row>
     <row r="79" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="64">
+      <c r="A79" s="71">
         <v>1</v>
       </c>
-      <c r="B79" s="68" t="s">
+      <c r="B79" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="76"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="78"/>
-      <c r="F79" s="78"/>
-      <c r="G79" s="62"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="57"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5934,13 +5934,13 @@
       <c r="W79" s="31"/>
     </row>
     <row r="80" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="65"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="79"/>
-      <c r="F80" s="79"/>
-      <c r="G80" s="63"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="58"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5962,17 +5962,17 @@
       <c r="W80" s="32"/>
     </row>
     <row r="81" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="64"/>
-      <c r="B81" s="66" t="s">
+      <c r="A81" s="71"/>
+      <c r="B81" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="68" t="s">
+      <c r="C81" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D81" s="69"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="74"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="61"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -6007,13 +6007,13 @@
       <c r="W81" s="31"/>
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="65"/>
-      <c r="B82" s="67"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="67"/>
+      <c r="A82" s="72"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="62"/>
       <c r="H82" s="56" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -6036,22 +6036,25 @@
         <f>6*2.75</f>
         <v>16.5</v>
       </c>
-      <c r="U82" s="32"/>
+      <c r="U82" s="32">
+        <f>1.25*4+3.25*2</f>
+        <v>11.5</v>
+      </c>
       <c r="V82" s="32"/>
       <c r="W82" s="32"/>
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="64"/>
-      <c r="B83" s="66" t="s">
+      <c r="A83" s="71"/>
+      <c r="B83" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="68" t="s">
+      <c r="C83" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="D83" s="69"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="74"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="61"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -6086,13 +6089,13 @@
       <c r="W83" s="31"/>
     </row>
     <row r="84" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="65"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="67"/>
+      <c r="A84" s="72"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="62"/>
       <c r="H84" s="56" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -6112,20 +6115,23 @@
       <c r="R84" s="32"/>
       <c r="S84" s="32"/>
       <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
+      <c r="U84" s="32">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
       <c r="V84" s="32"/>
       <c r="W84" s="32"/>
     </row>
     <row r="85" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="82" t="s">
+      <c r="A85" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B85" s="83"/>
-      <c r="C85" s="83"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="80"/>
+      <c r="B85" s="75"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="80"/>
+      <c r="G85" s="118"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
@@ -6185,13 +6191,13 @@
       </c>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="85"/>
-      <c r="B86" s="86"/>
-      <c r="C86" s="86"/>
-      <c r="D86" s="87"/>
-      <c r="E86" s="89"/>
-      <c r="F86" s="89"/>
-      <c r="G86" s="81"/>
+      <c r="A86" s="77"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="119"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -6251,17 +6257,17 @@
       </c>
     </row>
     <row r="87" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="64">
+      <c r="A87" s="71">
         <v>1</v>
       </c>
-      <c r="B87" s="68" t="s">
+      <c r="B87" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="76"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="78"/>
-      <c r="G87" s="62"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="57"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -6283,13 +6289,13 @@
       <c r="W87" s="31"/>
     </row>
     <row r="88" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="65"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="79"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="63"/>
+      <c r="A88" s="72"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="58"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -6311,17 +6317,17 @@
       <c r="W88" s="32"/>
     </row>
     <row r="89" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="64"/>
-      <c r="B89" s="66" t="s">
+      <c r="A89" s="71"/>
+      <c r="B89" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="68" t="s">
+      <c r="C89" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="69"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="74"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="61"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6353,13 +6359,13 @@
       <c r="W89" s="31"/>
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
-      <c r="B90" s="67"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="67"/>
+      <c r="A90" s="72"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="70"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="62"/>
       <c r="H90" s="56" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6384,17 +6390,17 @@
       <c r="W90" s="32"/>
     </row>
     <row r="91" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="64"/>
-      <c r="B91" s="66" t="s">
+      <c r="A91" s="71"/>
+      <c r="B91" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="75" t="s">
+      <c r="C91" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="D91" s="69"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="74"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="61"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -6426,13 +6432,13 @@
       <c r="W91" s="31"/>
     </row>
     <row r="92" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="65"/>
-      <c r="B92" s="67"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="67"/>
+      <c r="A92" s="72"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="62"/>
       <c r="H92" s="56" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -6457,17 +6463,17 @@
       <c r="W92" s="32"/>
     </row>
     <row r="93" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="64">
+      <c r="A93" s="71">
         <v>2</v>
       </c>
-      <c r="B93" s="68" t="s">
+      <c r="B93" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="76"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="78"/>
-      <c r="F93" s="78"/>
-      <c r="G93" s="62"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="57"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -6489,13 +6495,13 @@
       <c r="W93" s="31"/>
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="65"/>
-      <c r="B94" s="70"/>
-      <c r="C94" s="77"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="79"/>
-      <c r="F94" s="79"/>
-      <c r="G94" s="63"/>
+      <c r="A94" s="72"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="58"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -6517,17 +6523,17 @@
       <c r="W94" s="32"/>
     </row>
     <row r="95" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="64"/>
-      <c r="B95" s="66" t="s">
+      <c r="A95" s="71"/>
+      <c r="B95" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="68" t="s">
+      <c r="C95" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="69"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="74"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="61"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6559,13 +6565,13 @@
       <c r="W95" s="31"/>
     </row>
     <row r="96" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="65"/>
-      <c r="B96" s="67"/>
-      <c r="C96" s="70"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="67"/>
+      <c r="A96" s="72"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="62"/>
       <c r="H96" s="56" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6590,17 +6596,17 @@
       <c r="W96" s="32"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="64"/>
-      <c r="B97" s="66" t="s">
+      <c r="A97" s="71"/>
+      <c r="B97" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="68" t="s">
+      <c r="C97" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="69"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="74"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="61"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -6632,13 +6638,13 @@
       <c r="W97" s="31"/>
     </row>
     <row r="98" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="65"/>
-      <c r="B98" s="67"/>
-      <c r="C98" s="70"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="67"/>
+      <c r="A98" s="72"/>
+      <c r="B98" s="62"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="62"/>
       <c r="H98" s="56" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -6663,15 +6669,15 @@
       <c r="W98" s="44"/>
     </row>
     <row r="99" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="82" t="s">
+      <c r="A99" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B99" s="83"/>
-      <c r="C99" s="83"/>
-      <c r="D99" s="84"/>
-      <c r="E99" s="88"/>
-      <c r="F99" s="88"/>
-      <c r="G99" s="80"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="118"/>
       <c r="H99" s="20" t="s">
         <v>19</v>
       </c>
@@ -6731,13 +6737,13 @@
       </c>
     </row>
     <row r="100" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="85"/>
-      <c r="B100" s="86"/>
-      <c r="C100" s="86"/>
-      <c r="D100" s="87"/>
-      <c r="E100" s="89"/>
-      <c r="F100" s="89"/>
-      <c r="G100" s="81"/>
+      <c r="A100" s="77"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="81"/>
+      <c r="F100" s="81"/>
+      <c r="G100" s="119"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -6797,17 +6803,17 @@
       </c>
     </row>
     <row r="101" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="64">
+      <c r="A101" s="71">
         <v>1</v>
       </c>
-      <c r="B101" s="68" t="s">
+      <c r="B101" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="76"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="78"/>
-      <c r="F101" s="78"/>
-      <c r="G101" s="62"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="57"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -6829,13 +6835,13 @@
       <c r="W101" s="31"/>
     </row>
     <row r="102" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="65"/>
-      <c r="B102" s="70"/>
-      <c r="C102" s="77"/>
-      <c r="D102" s="71"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="79"/>
-      <c r="G102" s="63"/>
+      <c r="A102" s="72"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="70"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="58"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -6857,17 +6863,17 @@
       <c r="W102" s="32"/>
     </row>
     <row r="103" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="64"/>
-      <c r="B103" s="66" t="s">
+      <c r="A103" s="71"/>
+      <c r="B103" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="68" t="s">
+      <c r="C103" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D103" s="69"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="74"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="61"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6899,13 +6905,13 @@
       <c r="W103" s="31"/>
     </row>
     <row r="104" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="65"/>
-      <c r="B104" s="67"/>
-      <c r="C104" s="70"/>
-      <c r="D104" s="71"/>
-      <c r="E104" s="73"/>
-      <c r="F104" s="73"/>
-      <c r="G104" s="67"/>
+      <c r="A104" s="72"/>
+      <c r="B104" s="62"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="62"/>
       <c r="H104" s="56" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6930,17 +6936,17 @@
       <c r="W104" s="32"/>
     </row>
     <row r="105" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="64"/>
-      <c r="B105" s="66" t="s">
+      <c r="A105" s="71"/>
+      <c r="B105" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="68" t="s">
+      <c r="C105" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D105" s="69"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
-      <c r="G105" s="74"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="61"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -6972,13 +6978,13 @@
       <c r="W105" s="31"/>
     </row>
     <row r="106" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="65"/>
-      <c r="B106" s="67"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="71"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="67"/>
+      <c r="A106" s="72"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60"/>
+      <c r="G106" s="62"/>
       <c r="H106" s="56" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -7003,17 +7009,17 @@
       <c r="W106" s="32"/>
     </row>
     <row r="107" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="64">
+      <c r="A107" s="71">
         <v>2</v>
       </c>
-      <c r="B107" s="68" t="s">
+      <c r="B107" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="76"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="78"/>
-      <c r="F107" s="78"/>
-      <c r="G107" s="62"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="57"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -7035,13 +7041,13 @@
       <c r="W107" s="31"/>
     </row>
     <row r="108" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="65"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="71"/>
-      <c r="E108" s="79"/>
-      <c r="F108" s="79"/>
-      <c r="G108" s="63"/>
+      <c r="A108" s="72"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="58"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -7063,17 +7069,17 @@
       <c r="W108" s="32"/>
     </row>
     <row r="109" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="64"/>
-      <c r="B109" s="66" t="s">
+      <c r="A109" s="71"/>
+      <c r="B109" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="68" t="s">
+      <c r="C109" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="69"/>
-      <c r="E109" s="72"/>
-      <c r="F109" s="72"/>
-      <c r="G109" s="74"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="61"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7105,13 +7111,13 @@
       <c r="W109" s="31"/>
     </row>
     <row r="110" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="65"/>
-      <c r="B110" s="67"/>
-      <c r="C110" s="70"/>
-      <c r="D110" s="71"/>
-      <c r="E110" s="73"/>
-      <c r="F110" s="73"/>
-      <c r="G110" s="67"/>
+      <c r="A110" s="72"/>
+      <c r="B110" s="62"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="60"/>
+      <c r="G110" s="62"/>
       <c r="H110" s="56" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7136,17 +7142,17 @@
       <c r="W110" s="32"/>
     </row>
     <row r="111" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="64"/>
-      <c r="B111" s="66" t="s">
+      <c r="A111" s="71"/>
+      <c r="B111" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="68" t="s">
+      <c r="C111" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D111" s="69"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="72"/>
-      <c r="G111" s="74"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="61"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -7178,13 +7184,13 @@
       <c r="W111" s="31"/>
     </row>
     <row r="112" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="65"/>
-      <c r="B112" s="67"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="71"/>
-      <c r="E112" s="73"/>
-      <c r="F112" s="73"/>
-      <c r="G112" s="67"/>
+      <c r="A112" s="72"/>
+      <c r="B112" s="62"/>
+      <c r="C112" s="68"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="60"/>
+      <c r="G112" s="62"/>
       <c r="H112" s="56" t="str">
         <f>IF(E111="","","実績")</f>
         <v/>
@@ -7224,19 +7230,290 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="321">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -7261,290 +7538,19 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L22:S22 M21:S21 L25:S26 M27:S27 M29:S29 L66:S66 Q65:S65 L65:O65 L28:O28 Q28:S28 L30:S36">
@@ -7744,6 +7750,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -7927,15 +7942,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -7946,6 +7952,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD03FED8-A00F-4FCB-A8E4-19FD98D3DE82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7961,12 +7975,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>